--- a/documentation/requirements/StatisticalRequirements.xlsx
+++ b/documentation/requirements/StatisticalRequirements.xlsx
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="137">
   <si>
     <t>Gross margin</t>
   </si>
@@ -307,16 +307,7 @@
     <t>Avg price Elasticity</t>
   </si>
   <si>
-    <t xml:space="preserve">I launched product X with PP 30 Rs, breakeven is 34 Rs,MRP is 54 Rs  </t>
-  </si>
-  <si>
     <t>Leets say the opening price will be manually set(less than MRP) as 52</t>
-  </si>
-  <si>
-    <t>Initial Demand density of product X was 21.00 perecent</t>
-  </si>
-  <si>
-    <t>For the given demand density, offer price should be inversely proportional to demand chane rate</t>
   </si>
   <si>
     <t>When to change the price from A to B</t>
@@ -367,16 +358,7 @@
     <t>Total Fixed cost per period per product</t>
   </si>
   <si>
-    <t>Slope reduction percentage</t>
-  </si>
-  <si>
-    <t>actual quantity</t>
-  </si>
-  <si>
     <t>Actual quantity rise(%)</t>
-  </si>
-  <si>
-    <t>Quantity rise attributed to new price</t>
   </si>
   <si>
     <t>% rquntity rise attributed to new price</t>
@@ -625,6 +607,18 @@
 (Refer to "final2" sheet.It is not working for all scenarios,only illustration of attributes used to calculate revenue,slope,cost etc)</t>
     </r>
   </si>
+  <si>
+    <t xml:space="preserve">I launched product X with Purchase Price 30 Rs, breakeven is 34 Rs,MRP is 54 Rs  </t>
+  </si>
+  <si>
+    <t>breakeven price</t>
+  </si>
+  <si>
+    <t>total actual quantity</t>
+  </si>
+  <si>
+    <t>Quantity per offered price</t>
+  </si>
 </sst>
 </file>
 
@@ -835,20 +829,6 @@
     <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
       <protection locked="0"/>
@@ -865,9 +845,23 @@
       <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3115,11 +3109,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="367447592"/>
-        <c:axId val="367451120"/>
+        <c:axId val="322189072"/>
+        <c:axId val="322187112"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="367447592"/>
+        <c:axId val="322189072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3129,7 +3123,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="367451120"/>
+        <c:crossAx val="322187112"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3137,7 +3131,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="367451120"/>
+        <c:axId val="322187112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3148,7 +3142,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="367447592"/>
+        <c:crossAx val="322189072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5261,11 +5255,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="321582416"/>
-        <c:axId val="321587512"/>
+        <c:axId val="322189464"/>
+        <c:axId val="322190640"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="321582416"/>
+        <c:axId val="322189464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5275,7 +5269,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="321587512"/>
+        <c:crossAx val="322190640"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5283,7 +5277,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="321587512"/>
+        <c:axId val="322190640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5294,7 +5288,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="321582416"/>
+        <c:crossAx val="322189464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5822,43 +5816,43 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.453125" defaultRowHeight="46" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="1.26953125" style="33" customWidth="1"/>
-    <col min="2" max="2" width="5.26953125" style="33" customWidth="1"/>
-    <col min="3" max="3" width="2.6328125" style="33" customWidth="1"/>
-    <col min="4" max="4" width="17" style="33" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.1796875" style="33" customWidth="1"/>
-    <col min="6" max="6" width="10.54296875" style="33" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="10.54296875" style="33" customWidth="1"/>
-    <col min="9" max="9" width="13.26953125" style="33" customWidth="1"/>
-    <col min="10" max="10" width="13" style="33" customWidth="1"/>
-    <col min="11" max="11" width="11.1796875" style="35" customWidth="1"/>
-    <col min="12" max="12" width="34.6328125" style="33" customWidth="1"/>
-    <col min="13" max="13" width="9.26953125" style="33" customWidth="1"/>
-    <col min="14" max="16" width="13.7265625" style="33" customWidth="1"/>
-    <col min="17" max="17" width="12.1796875" style="33" customWidth="1"/>
-    <col min="18" max="18" width="21.453125" style="33"/>
-    <col min="19" max="19" width="19" style="33" customWidth="1"/>
-    <col min="20" max="20" width="17.81640625" style="33" customWidth="1"/>
-    <col min="21" max="24" width="21.453125" style="33"/>
-    <col min="25" max="25" width="16.7265625" style="33" customWidth="1"/>
-    <col min="26" max="16384" width="21.453125" style="33"/>
+    <col min="1" max="1" width="1.26953125" style="29" customWidth="1"/>
+    <col min="2" max="2" width="5.26953125" style="29" customWidth="1"/>
+    <col min="3" max="3" width="2.6328125" style="29" customWidth="1"/>
+    <col min="4" max="4" width="17" style="29" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.1796875" style="29" customWidth="1"/>
+    <col min="6" max="6" width="10.54296875" style="29" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="10.54296875" style="29" customWidth="1"/>
+    <col min="9" max="9" width="13.26953125" style="29" customWidth="1"/>
+    <col min="10" max="10" width="13" style="29" customWidth="1"/>
+    <col min="11" max="11" width="11.1796875" style="31" customWidth="1"/>
+    <col min="12" max="12" width="34.6328125" style="29" customWidth="1"/>
+    <col min="13" max="13" width="9.26953125" style="29" customWidth="1"/>
+    <col min="14" max="16" width="13.7265625" style="29" customWidth="1"/>
+    <col min="17" max="17" width="12.1796875" style="29" customWidth="1"/>
+    <col min="18" max="18" width="21.453125" style="29"/>
+    <col min="19" max="19" width="19" style="29" customWidth="1"/>
+    <col min="20" max="20" width="17.81640625" style="29" customWidth="1"/>
+    <col min="21" max="24" width="21.453125" style="29"/>
+    <col min="25" max="25" width="16.7265625" style="29" customWidth="1"/>
+    <col min="26" max="16384" width="21.453125" style="29"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="46" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="30"/>
-      <c r="B1" s="31" t="s">
-        <v>111</v>
-      </c>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
+      <c r="A1" s="28"/>
+      <c r="B1" s="34" t="s">
+        <v>105</v>
+      </c>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="34"/>
+      <c r="L1" s="34"/>
       <c r="M1" s="32"/>
       <c r="N1" s="32"/>
       <c r="O1" s="32"/>
@@ -5866,50 +5860,50 @@
       <c r="Q1" s="32"/>
       <c r="R1" s="32"/>
       <c r="S1" s="32"/>
-      <c r="T1" s="30"/>
-      <c r="U1" s="30"/>
-      <c r="V1" s="30"/>
-      <c r="W1" s="30"/>
-      <c r="X1" s="30"/>
-      <c r="Y1" s="30"/>
-      <c r="Z1" s="30"/>
+      <c r="T1" s="28"/>
+      <c r="U1" s="28"/>
+      <c r="V1" s="28"/>
+      <c r="W1" s="28"/>
+      <c r="X1" s="28"/>
+      <c r="Y1" s="28"/>
+      <c r="Z1" s="28"/>
     </row>
     <row r="2" spans="1:26" ht="46" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="30"/>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="34"/>
-      <c r="L2" s="30"/>
-      <c r="M2" s="30"/>
-      <c r="N2" s="30"/>
-      <c r="O2" s="30"/>
-      <c r="P2" s="30"/>
-      <c r="Q2" s="30"/>
-      <c r="R2" s="30"/>
-      <c r="S2" s="30"/>
-      <c r="T2" s="30"/>
-      <c r="U2" s="30"/>
-      <c r="V2" s="30"/>
-      <c r="W2" s="30"/>
-      <c r="X2" s="30"/>
-      <c r="Y2" s="30"/>
-      <c r="Z2" s="30"/>
+      <c r="A2" s="28"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="28"/>
+      <c r="K2" s="30"/>
+      <c r="L2" s="28"/>
+      <c r="M2" s="28"/>
+      <c r="N2" s="28"/>
+      <c r="O2" s="28"/>
+      <c r="P2" s="28"/>
+      <c r="Q2" s="28"/>
+      <c r="R2" s="28"/>
+      <c r="S2" s="28"/>
+      <c r="T2" s="28"/>
+      <c r="U2" s="28"/>
+      <c r="V2" s="28"/>
+      <c r="W2" s="28"/>
+      <c r="X2" s="28"/>
+      <c r="Y2" s="28"/>
+      <c r="Z2" s="28"/>
     </row>
     <row r="3" spans="1:26" ht="46" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="30"/>
-      <c r="B3" s="30">
+      <c r="A3" s="28"/>
+      <c r="B3" s="28">
         <v>1</v>
       </c>
-      <c r="C3" s="30"/>
+      <c r="C3" s="28"/>
       <c r="D3" s="32" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="E3" s="32"/>
       <c r="F3" s="32"/>
@@ -5919,29 +5913,29 @@
       <c r="J3" s="32"/>
       <c r="K3" s="32"/>
       <c r="L3" s="32"/>
-      <c r="M3" s="30"/>
-      <c r="N3" s="30"/>
-      <c r="O3" s="30"/>
-      <c r="P3" s="30"/>
-      <c r="Q3" s="30"/>
-      <c r="R3" s="30"/>
-      <c r="S3" s="30"/>
-      <c r="T3" s="30"/>
-      <c r="U3" s="30"/>
-      <c r="V3" s="30"/>
-      <c r="W3" s="30"/>
-      <c r="X3" s="30"/>
-      <c r="Y3" s="30"/>
-      <c r="Z3" s="30"/>
+      <c r="M3" s="28"/>
+      <c r="N3" s="28"/>
+      <c r="O3" s="28"/>
+      <c r="P3" s="28"/>
+      <c r="Q3" s="28"/>
+      <c r="R3" s="28"/>
+      <c r="S3" s="28"/>
+      <c r="T3" s="28"/>
+      <c r="U3" s="28"/>
+      <c r="V3" s="28"/>
+      <c r="W3" s="28"/>
+      <c r="X3" s="28"/>
+      <c r="Y3" s="28"/>
+      <c r="Z3" s="28"/>
     </row>
     <row r="4" spans="1:26" ht="46" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="30"/>
-      <c r="B4" s="30">
+      <c r="A4" s="28"/>
+      <c r="B4" s="28">
         <v>2</v>
       </c>
-      <c r="C4" s="30"/>
+      <c r="C4" s="28"/>
       <c r="D4" s="32" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="E4" s="32"/>
       <c r="F4" s="32"/>
@@ -5951,29 +5945,29 @@
       <c r="J4" s="32"/>
       <c r="K4" s="32"/>
       <c r="L4" s="32"/>
-      <c r="M4" s="30"/>
-      <c r="N4" s="30"/>
-      <c r="O4" s="30"/>
-      <c r="P4" s="30"/>
-      <c r="Q4" s="30"/>
-      <c r="R4" s="30"/>
-      <c r="S4" s="30"/>
-      <c r="T4" s="30"/>
-      <c r="U4" s="30"/>
-      <c r="V4" s="30"/>
-      <c r="W4" s="30"/>
-      <c r="X4" s="30"/>
-      <c r="Y4" s="30"/>
-      <c r="Z4" s="30"/>
+      <c r="M4" s="28"/>
+      <c r="N4" s="28"/>
+      <c r="O4" s="28"/>
+      <c r="P4" s="28"/>
+      <c r="Q4" s="28"/>
+      <c r="R4" s="28"/>
+      <c r="S4" s="28"/>
+      <c r="T4" s="28"/>
+      <c r="U4" s="28"/>
+      <c r="V4" s="28"/>
+      <c r="W4" s="28"/>
+      <c r="X4" s="28"/>
+      <c r="Y4" s="28"/>
+      <c r="Z4" s="28"/>
     </row>
     <row r="5" spans="1:26" ht="46" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="30"/>
-      <c r="B5" s="30">
+      <c r="A5" s="28"/>
+      <c r="B5" s="28">
         <v>3</v>
       </c>
-      <c r="C5" s="30"/>
+      <c r="C5" s="28"/>
       <c r="D5" s="32" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="E5" s="32"/>
       <c r="F5" s="32"/>
@@ -5983,29 +5977,29 @@
       <c r="J5" s="32"/>
       <c r="K5" s="32"/>
       <c r="L5" s="32"/>
-      <c r="M5" s="30"/>
-      <c r="N5" s="30"/>
-      <c r="O5" s="30"/>
-      <c r="P5" s="30"/>
-      <c r="Q5" s="30"/>
-      <c r="R5" s="30"/>
-      <c r="S5" s="30"/>
-      <c r="T5" s="30"/>
-      <c r="U5" s="30"/>
-      <c r="V5" s="30"/>
-      <c r="W5" s="30"/>
-      <c r="X5" s="30"/>
-      <c r="Y5" s="30"/>
-      <c r="Z5" s="30"/>
+      <c r="M5" s="28"/>
+      <c r="N5" s="28"/>
+      <c r="O5" s="28"/>
+      <c r="P5" s="28"/>
+      <c r="Q5" s="28"/>
+      <c r="R5" s="28"/>
+      <c r="S5" s="28"/>
+      <c r="T5" s="28"/>
+      <c r="U5" s="28"/>
+      <c r="V5" s="28"/>
+      <c r="W5" s="28"/>
+      <c r="X5" s="28"/>
+      <c r="Y5" s="28"/>
+      <c r="Z5" s="28"/>
     </row>
     <row r="6" spans="1:26" ht="46" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="30"/>
-      <c r="B6" s="30">
+      <c r="A6" s="28"/>
+      <c r="B6" s="28">
         <v>4</v>
       </c>
-      <c r="C6" s="30"/>
+      <c r="C6" s="28"/>
       <c r="D6" s="32" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="E6" s="32"/>
       <c r="F6" s="32"/>
@@ -6015,29 +6009,29 @@
       <c r="J6" s="32"/>
       <c r="K6" s="32"/>
       <c r="L6" s="32"/>
-      <c r="M6" s="30"/>
-      <c r="N6" s="30"/>
-      <c r="O6" s="30"/>
-      <c r="P6" s="30"/>
-      <c r="Q6" s="30"/>
-      <c r="R6" s="30"/>
-      <c r="S6" s="30"/>
-      <c r="T6" s="30"/>
-      <c r="U6" s="30"/>
-      <c r="V6" s="30"/>
-      <c r="W6" s="30"/>
-      <c r="X6" s="30"/>
-      <c r="Y6" s="30"/>
-      <c r="Z6" s="30"/>
+      <c r="M6" s="28"/>
+      <c r="N6" s="28"/>
+      <c r="O6" s="28"/>
+      <c r="P6" s="28"/>
+      <c r="Q6" s="28"/>
+      <c r="R6" s="28"/>
+      <c r="S6" s="28"/>
+      <c r="T6" s="28"/>
+      <c r="U6" s="28"/>
+      <c r="V6" s="28"/>
+      <c r="W6" s="28"/>
+      <c r="X6" s="28"/>
+      <c r="Y6" s="28"/>
+      <c r="Z6" s="28"/>
     </row>
     <row r="7" spans="1:26" ht="46" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="30"/>
-      <c r="B7" s="30">
+      <c r="A7" s="28"/>
+      <c r="B7" s="28">
         <v>5</v>
       </c>
-      <c r="C7" s="30"/>
+      <c r="C7" s="28"/>
       <c r="D7" s="32" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="E7" s="32"/>
       <c r="F7" s="32"/>
@@ -6047,29 +6041,29 @@
       <c r="J7" s="32"/>
       <c r="K7" s="32"/>
       <c r="L7" s="32"/>
-      <c r="M7" s="30"/>
-      <c r="N7" s="30"/>
-      <c r="O7" s="30"/>
-      <c r="P7" s="30"/>
-      <c r="Q7" s="30"/>
-      <c r="R7" s="30"/>
-      <c r="S7" s="30"/>
-      <c r="T7" s="30"/>
-      <c r="U7" s="30"/>
-      <c r="V7" s="30"/>
-      <c r="W7" s="30"/>
-      <c r="X7" s="30"/>
-      <c r="Y7" s="30"/>
-      <c r="Z7" s="30"/>
+      <c r="M7" s="28"/>
+      <c r="N7" s="28"/>
+      <c r="O7" s="28"/>
+      <c r="P7" s="28"/>
+      <c r="Q7" s="28"/>
+      <c r="R7" s="28"/>
+      <c r="S7" s="28"/>
+      <c r="T7" s="28"/>
+      <c r="U7" s="28"/>
+      <c r="V7" s="28"/>
+      <c r="W7" s="28"/>
+      <c r="X7" s="28"/>
+      <c r="Y7" s="28"/>
+      <c r="Z7" s="28"/>
     </row>
     <row r="8" spans="1:26" ht="46" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="30"/>
-      <c r="B8" s="30">
+      <c r="A8" s="28"/>
+      <c r="B8" s="28">
         <v>6</v>
       </c>
-      <c r="C8" s="30"/>
+      <c r="C8" s="28"/>
       <c r="D8" s="32" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="E8" s="32"/>
       <c r="F8" s="32"/>
@@ -6079,29 +6073,29 @@
       <c r="J8" s="32"/>
       <c r="K8" s="32"/>
       <c r="L8" s="32"/>
-      <c r="M8" s="30"/>
-      <c r="N8" s="30"/>
-      <c r="O8" s="30"/>
-      <c r="P8" s="30"/>
-      <c r="Q8" s="30"/>
-      <c r="R8" s="30"/>
-      <c r="S8" s="30"/>
-      <c r="T8" s="30"/>
-      <c r="U8" s="30"/>
-      <c r="V8" s="30"/>
-      <c r="W8" s="30"/>
-      <c r="X8" s="30"/>
-      <c r="Y8" s="30"/>
-      <c r="Z8" s="30"/>
+      <c r="M8" s="28"/>
+      <c r="N8" s="28"/>
+      <c r="O8" s="28"/>
+      <c r="P8" s="28"/>
+      <c r="Q8" s="28"/>
+      <c r="R8" s="28"/>
+      <c r="S8" s="28"/>
+      <c r="T8" s="28"/>
+      <c r="U8" s="28"/>
+      <c r="V8" s="28"/>
+      <c r="W8" s="28"/>
+      <c r="X8" s="28"/>
+      <c r="Y8" s="28"/>
+      <c r="Z8" s="28"/>
     </row>
     <row r="9" spans="1:26" ht="46" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="30"/>
-      <c r="B9" s="30">
+      <c r="A9" s="28"/>
+      <c r="B9" s="28">
         <v>7</v>
       </c>
-      <c r="C9" s="30"/>
+      <c r="C9" s="28"/>
       <c r="D9" s="32" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="E9" s="32"/>
       <c r="F9" s="32"/>
@@ -6111,29 +6105,29 @@
       <c r="J9" s="32"/>
       <c r="K9" s="32"/>
       <c r="L9" s="32"/>
-      <c r="M9" s="30"/>
-      <c r="N9" s="30"/>
-      <c r="O9" s="30"/>
-      <c r="P9" s="30"/>
-      <c r="Q9" s="30"/>
-      <c r="R9" s="30"/>
-      <c r="S9" s="30"/>
-      <c r="T9" s="30"/>
-      <c r="U9" s="30"/>
-      <c r="V9" s="30"/>
-      <c r="W9" s="30"/>
-      <c r="X9" s="30"/>
-      <c r="Y9" s="30"/>
-      <c r="Z9" s="30"/>
+      <c r="M9" s="28"/>
+      <c r="N9" s="28"/>
+      <c r="O9" s="28"/>
+      <c r="P9" s="28"/>
+      <c r="Q9" s="28"/>
+      <c r="R9" s="28"/>
+      <c r="S9" s="28"/>
+      <c r="T9" s="28"/>
+      <c r="U9" s="28"/>
+      <c r="V9" s="28"/>
+      <c r="W9" s="28"/>
+      <c r="X9" s="28"/>
+      <c r="Y9" s="28"/>
+      <c r="Z9" s="28"/>
     </row>
     <row r="10" spans="1:26" ht="46" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="30"/>
-      <c r="B10" s="30">
+      <c r="A10" s="28"/>
+      <c r="B10" s="28">
         <v>8</v>
       </c>
-      <c r="C10" s="30"/>
+      <c r="C10" s="28"/>
       <c r="D10" s="32" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="E10" s="32"/>
       <c r="F10" s="32"/>
@@ -6143,115 +6137,115 @@
       <c r="J10" s="32"/>
       <c r="K10" s="32"/>
       <c r="L10" s="32"/>
-      <c r="M10" s="30"/>
-      <c r="N10" s="30"/>
-      <c r="O10" s="30"/>
-      <c r="P10" s="30"/>
-      <c r="Q10" s="30"/>
-      <c r="R10" s="30"/>
-      <c r="S10" s="30"/>
-      <c r="T10" s="30"/>
-      <c r="U10" s="30"/>
-      <c r="V10" s="30"/>
-      <c r="W10" s="30"/>
-      <c r="X10" s="30"/>
-      <c r="Y10" s="30"/>
-      <c r="Z10" s="30"/>
+      <c r="M10" s="28"/>
+      <c r="N10" s="28"/>
+      <c r="O10" s="28"/>
+      <c r="P10" s="28"/>
+      <c r="Q10" s="28"/>
+      <c r="R10" s="28"/>
+      <c r="S10" s="28"/>
+      <c r="T10" s="28"/>
+      <c r="U10" s="28"/>
+      <c r="V10" s="28"/>
+      <c r="W10" s="28"/>
+      <c r="X10" s="28"/>
+      <c r="Y10" s="28"/>
+      <c r="Z10" s="28"/>
     </row>
     <row r="11" spans="1:26" ht="46" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="30"/>
-      <c r="B11" s="30"/>
-      <c r="C11" s="30"/>
-      <c r="D11" s="30"/>
-      <c r="E11" s="30"/>
-      <c r="F11" s="30"/>
-      <c r="G11" s="30"/>
-      <c r="H11" s="30"/>
-      <c r="I11" s="34"/>
-      <c r="J11" s="34"/>
-      <c r="K11" s="34"/>
-      <c r="L11" s="30"/>
-      <c r="M11" s="30"/>
-      <c r="N11" s="30"/>
-      <c r="O11" s="30"/>
-      <c r="P11" s="30"/>
-      <c r="Q11" s="30"/>
-      <c r="R11" s="30"/>
-      <c r="S11" s="30"/>
-      <c r="T11" s="30"/>
-      <c r="U11" s="30"/>
-      <c r="V11" s="30"/>
-      <c r="W11" s="30"/>
-      <c r="X11" s="30"/>
-      <c r="Y11" s="30"/>
-      <c r="Z11" s="30"/>
+      <c r="A11" s="28"/>
+      <c r="B11" s="28"/>
+      <c r="C11" s="28"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="28"/>
+      <c r="H11" s="28"/>
+      <c r="I11" s="30"/>
+      <c r="J11" s="30"/>
+      <c r="K11" s="30"/>
+      <c r="L11" s="28"/>
+      <c r="M11" s="28"/>
+      <c r="N11" s="28"/>
+      <c r="O11" s="28"/>
+      <c r="P11" s="28"/>
+      <c r="Q11" s="28"/>
+      <c r="R11" s="28"/>
+      <c r="S11" s="28"/>
+      <c r="T11" s="28"/>
+      <c r="U11" s="28"/>
+      <c r="V11" s="28"/>
+      <c r="W11" s="28"/>
+      <c r="X11" s="28"/>
+      <c r="Y11" s="28"/>
+      <c r="Z11" s="28"/>
     </row>
     <row r="12" spans="1:26" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="30"/>
-      <c r="B12" s="30"/>
-      <c r="C12" s="30"/>
-      <c r="D12" s="31" t="s">
-        <v>120</v>
-      </c>
-      <c r="E12" s="31"/>
-      <c r="F12" s="31"/>
-      <c r="G12" s="31"/>
-      <c r="H12" s="31"/>
-      <c r="I12" s="31"/>
-      <c r="J12" s="31"/>
-      <c r="K12" s="31"/>
-      <c r="L12" s="31"/>
-      <c r="M12" s="30"/>
-      <c r="N12" s="30"/>
-      <c r="O12" s="30"/>
-      <c r="P12" s="30"/>
-      <c r="Q12" s="30"/>
-      <c r="R12" s="30"/>
-      <c r="S12" s="30"/>
-      <c r="T12" s="30"/>
-      <c r="U12" s="30"/>
-      <c r="V12" s="30"/>
-      <c r="W12" s="30"/>
-      <c r="X12" s="30"/>
-      <c r="Y12" s="30"/>
-      <c r="Z12" s="30"/>
+      <c r="A12" s="28"/>
+      <c r="B12" s="28"/>
+      <c r="C12" s="28"/>
+      <c r="D12" s="34" t="s">
+        <v>114</v>
+      </c>
+      <c r="E12" s="34"/>
+      <c r="F12" s="34"/>
+      <c r="G12" s="34"/>
+      <c r="H12" s="34"/>
+      <c r="I12" s="34"/>
+      <c r="J12" s="34"/>
+      <c r="K12" s="34"/>
+      <c r="L12" s="34"/>
+      <c r="M12" s="28"/>
+      <c r="N12" s="28"/>
+      <c r="O12" s="28"/>
+      <c r="P12" s="28"/>
+      <c r="Q12" s="28"/>
+      <c r="R12" s="28"/>
+      <c r="S12" s="28"/>
+      <c r="T12" s="28"/>
+      <c r="U12" s="28"/>
+      <c r="V12" s="28"/>
+      <c r="W12" s="28"/>
+      <c r="X12" s="28"/>
+      <c r="Y12" s="28"/>
+      <c r="Z12" s="28"/>
     </row>
     <row r="13" spans="1:26" ht="46" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="30"/>
-      <c r="B13" s="30"/>
-      <c r="C13" s="30"/>
-      <c r="D13" s="30"/>
-      <c r="E13" s="30"/>
-      <c r="F13" s="30"/>
-      <c r="G13" s="30"/>
-      <c r="H13" s="30"/>
-      <c r="I13" s="34"/>
-      <c r="J13" s="34"/>
-      <c r="K13" s="34"/>
-      <c r="L13" s="30"/>
-      <c r="M13" s="30"/>
-      <c r="N13" s="30"/>
-      <c r="O13" s="30"/>
-      <c r="P13" s="30"/>
-      <c r="Q13" s="30"/>
-      <c r="R13" s="30"/>
-      <c r="S13" s="30"/>
-      <c r="T13" s="30"/>
-      <c r="U13" s="30"/>
-      <c r="V13" s="30"/>
-      <c r="W13" s="30"/>
-      <c r="X13" s="30"/>
-      <c r="Y13" s="30"/>
-      <c r="Z13" s="30"/>
+      <c r="A13" s="28"/>
+      <c r="B13" s="28"/>
+      <c r="C13" s="28"/>
+      <c r="D13" s="28"/>
+      <c r="E13" s="28"/>
+      <c r="F13" s="28"/>
+      <c r="G13" s="28"/>
+      <c r="H13" s="28"/>
+      <c r="I13" s="30"/>
+      <c r="J13" s="30"/>
+      <c r="K13" s="30"/>
+      <c r="L13" s="28"/>
+      <c r="M13" s="28"/>
+      <c r="N13" s="28"/>
+      <c r="O13" s="28"/>
+      <c r="P13" s="28"/>
+      <c r="Q13" s="28"/>
+      <c r="R13" s="28"/>
+      <c r="S13" s="28"/>
+      <c r="T13" s="28"/>
+      <c r="U13" s="28"/>
+      <c r="V13" s="28"/>
+      <c r="W13" s="28"/>
+      <c r="X13" s="28"/>
+      <c r="Y13" s="28"/>
+      <c r="Z13" s="28"/>
     </row>
     <row r="14" spans="1:26" ht="46" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="30"/>
-      <c r="B14" s="30">
+      <c r="A14" s="28"/>
+      <c r="B14" s="28">
         <v>1</v>
       </c>
-      <c r="C14" s="30"/>
+      <c r="C14" s="28"/>
       <c r="D14" s="32" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="E14" s="32"/>
       <c r="F14" s="32"/>
@@ -6261,29 +6255,29 @@
       <c r="J14" s="32"/>
       <c r="K14" s="32"/>
       <c r="L14" s="32"/>
-      <c r="M14" s="30"/>
-      <c r="N14" s="30"/>
-      <c r="O14" s="30"/>
-      <c r="P14" s="30"/>
-      <c r="Q14" s="30"/>
-      <c r="R14" s="30"/>
-      <c r="S14" s="30"/>
-      <c r="T14" s="30"/>
-      <c r="U14" s="30"/>
-      <c r="V14" s="30"/>
-      <c r="W14" s="30"/>
-      <c r="X14" s="30"/>
-      <c r="Y14" s="30"/>
-      <c r="Z14" s="30"/>
+      <c r="M14" s="28"/>
+      <c r="N14" s="28"/>
+      <c r="O14" s="28"/>
+      <c r="P14" s="28"/>
+      <c r="Q14" s="28"/>
+      <c r="R14" s="28"/>
+      <c r="S14" s="28"/>
+      <c r="T14" s="28"/>
+      <c r="U14" s="28"/>
+      <c r="V14" s="28"/>
+      <c r="W14" s="28"/>
+      <c r="X14" s="28"/>
+      <c r="Y14" s="28"/>
+      <c r="Z14" s="28"/>
     </row>
     <row r="15" spans="1:26" ht="46" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="30"/>
-      <c r="B15" s="30">
+      <c r="A15" s="28"/>
+      <c r="B15" s="28">
         <v>2</v>
       </c>
-      <c r="C15" s="30"/>
+      <c r="C15" s="28"/>
       <c r="D15" s="32" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="E15" s="32"/>
       <c r="F15" s="32"/>
@@ -6293,29 +6287,29 @@
       <c r="J15" s="32"/>
       <c r="K15" s="32"/>
       <c r="L15" s="32"/>
-      <c r="M15" s="30"/>
-      <c r="N15" s="30"/>
-      <c r="O15" s="30"/>
-      <c r="P15" s="30"/>
-      <c r="Q15" s="30"/>
-      <c r="R15" s="30"/>
-      <c r="S15" s="30"/>
-      <c r="T15" s="30"/>
-      <c r="U15" s="30"/>
-      <c r="V15" s="30"/>
-      <c r="W15" s="30"/>
-      <c r="X15" s="30"/>
-      <c r="Y15" s="30"/>
-      <c r="Z15" s="30"/>
+      <c r="M15" s="28"/>
+      <c r="N15" s="28"/>
+      <c r="O15" s="28"/>
+      <c r="P15" s="28"/>
+      <c r="Q15" s="28"/>
+      <c r="R15" s="28"/>
+      <c r="S15" s="28"/>
+      <c r="T15" s="28"/>
+      <c r="U15" s="28"/>
+      <c r="V15" s="28"/>
+      <c r="W15" s="28"/>
+      <c r="X15" s="28"/>
+      <c r="Y15" s="28"/>
+      <c r="Z15" s="28"/>
     </row>
     <row r="16" spans="1:26" ht="46" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="30"/>
-      <c r="B16" s="30">
+      <c r="A16" s="28"/>
+      <c r="B16" s="28">
         <v>3</v>
       </c>
-      <c r="C16" s="30"/>
+      <c r="C16" s="28"/>
       <c r="D16" s="32" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="E16" s="32"/>
       <c r="F16" s="32"/>
@@ -6325,29 +6319,29 @@
       <c r="J16" s="32"/>
       <c r="K16" s="32"/>
       <c r="L16" s="32"/>
-      <c r="M16" s="30"/>
-      <c r="N16" s="30"/>
-      <c r="O16" s="30"/>
-      <c r="P16" s="30"/>
-      <c r="Q16" s="30"/>
-      <c r="R16" s="30"/>
-      <c r="S16" s="30"/>
-      <c r="T16" s="30"/>
-      <c r="U16" s="30"/>
-      <c r="V16" s="30"/>
-      <c r="W16" s="30"/>
-      <c r="X16" s="30"/>
-      <c r="Y16" s="30"/>
-      <c r="Z16" s="30"/>
+      <c r="M16" s="28"/>
+      <c r="N16" s="28"/>
+      <c r="O16" s="28"/>
+      <c r="P16" s="28"/>
+      <c r="Q16" s="28"/>
+      <c r="R16" s="28"/>
+      <c r="S16" s="28"/>
+      <c r="T16" s="28"/>
+      <c r="U16" s="28"/>
+      <c r="V16" s="28"/>
+      <c r="W16" s="28"/>
+      <c r="X16" s="28"/>
+      <c r="Y16" s="28"/>
+      <c r="Z16" s="28"/>
     </row>
     <row r="17" spans="1:26" ht="46" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="30"/>
-      <c r="B17" s="30">
+      <c r="A17" s="28"/>
+      <c r="B17" s="28">
         <v>4</v>
       </c>
-      <c r="C17" s="30"/>
+      <c r="C17" s="28"/>
       <c r="D17" s="32" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="E17" s="32"/>
       <c r="F17" s="32"/>
@@ -6357,29 +6351,29 @@
       <c r="J17" s="32"/>
       <c r="K17" s="32"/>
       <c r="L17" s="32"/>
-      <c r="M17" s="30"/>
-      <c r="N17" s="30"/>
-      <c r="O17" s="30"/>
-      <c r="P17" s="30"/>
-      <c r="Q17" s="30"/>
-      <c r="R17" s="30"/>
-      <c r="S17" s="30"/>
-      <c r="T17" s="30"/>
-      <c r="U17" s="30"/>
-      <c r="V17" s="30"/>
-      <c r="W17" s="30"/>
-      <c r="X17" s="30"/>
-      <c r="Y17" s="30"/>
-      <c r="Z17" s="30"/>
+      <c r="M17" s="28"/>
+      <c r="N17" s="28"/>
+      <c r="O17" s="28"/>
+      <c r="P17" s="28"/>
+      <c r="Q17" s="28"/>
+      <c r="R17" s="28"/>
+      <c r="S17" s="28"/>
+      <c r="T17" s="28"/>
+      <c r="U17" s="28"/>
+      <c r="V17" s="28"/>
+      <c r="W17" s="28"/>
+      <c r="X17" s="28"/>
+      <c r="Y17" s="28"/>
+      <c r="Z17" s="28"/>
     </row>
     <row r="18" spans="1:26" ht="46" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="30"/>
-      <c r="B18" s="30">
+      <c r="A18" s="28"/>
+      <c r="B18" s="28">
         <v>5</v>
       </c>
-      <c r="C18" s="30"/>
+      <c r="C18" s="28"/>
       <c r="D18" s="32" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="E18" s="32"/>
       <c r="F18" s="32"/>
@@ -6389,29 +6383,29 @@
       <c r="J18" s="32"/>
       <c r="K18" s="32"/>
       <c r="L18" s="32"/>
-      <c r="M18" s="30"/>
-      <c r="N18" s="30"/>
-      <c r="O18" s="30"/>
-      <c r="P18" s="30"/>
-      <c r="Q18" s="30"/>
-      <c r="R18" s="30"/>
-      <c r="S18" s="30"/>
-      <c r="T18" s="30"/>
-      <c r="U18" s="30"/>
-      <c r="V18" s="30"/>
-      <c r="W18" s="30"/>
-      <c r="X18" s="30"/>
-      <c r="Y18" s="30"/>
-      <c r="Z18" s="30"/>
+      <c r="M18" s="28"/>
+      <c r="N18" s="28"/>
+      <c r="O18" s="28"/>
+      <c r="P18" s="28"/>
+      <c r="Q18" s="28"/>
+      <c r="R18" s="28"/>
+      <c r="S18" s="28"/>
+      <c r="T18" s="28"/>
+      <c r="U18" s="28"/>
+      <c r="V18" s="28"/>
+      <c r="W18" s="28"/>
+      <c r="X18" s="28"/>
+      <c r="Y18" s="28"/>
+      <c r="Z18" s="28"/>
     </row>
     <row r="19" spans="1:26" ht="46" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="30"/>
-      <c r="B19" s="30">
+      <c r="A19" s="28"/>
+      <c r="B19" s="28">
         <v>6</v>
       </c>
-      <c r="C19" s="30"/>
+      <c r="C19" s="28"/>
       <c r="D19" s="32" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="E19" s="32"/>
       <c r="F19" s="32"/>
@@ -6421,29 +6415,29 @@
       <c r="J19" s="32"/>
       <c r="K19" s="32"/>
       <c r="L19" s="32"/>
-      <c r="M19" s="30"/>
-      <c r="N19" s="30"/>
-      <c r="O19" s="30"/>
-      <c r="P19" s="30"/>
-      <c r="Q19" s="30"/>
-      <c r="R19" s="30"/>
-      <c r="S19" s="30"/>
-      <c r="T19" s="30"/>
-      <c r="U19" s="30"/>
-      <c r="V19" s="30"/>
-      <c r="W19" s="30"/>
-      <c r="X19" s="30"/>
-      <c r="Y19" s="30"/>
-      <c r="Z19" s="30"/>
+      <c r="M19" s="28"/>
+      <c r="N19" s="28"/>
+      <c r="O19" s="28"/>
+      <c r="P19" s="28"/>
+      <c r="Q19" s="28"/>
+      <c r="R19" s="28"/>
+      <c r="S19" s="28"/>
+      <c r="T19" s="28"/>
+      <c r="U19" s="28"/>
+      <c r="V19" s="28"/>
+      <c r="W19" s="28"/>
+      <c r="X19" s="28"/>
+      <c r="Y19" s="28"/>
+      <c r="Z19" s="28"/>
     </row>
     <row r="20" spans="1:26" ht="46" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="30"/>
-      <c r="B20" s="30">
+      <c r="A20" s="28"/>
+      <c r="B20" s="28">
         <v>7</v>
       </c>
-      <c r="C20" s="30"/>
+      <c r="C20" s="28"/>
       <c r="D20" s="32" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="E20" s="32"/>
       <c r="F20" s="32"/>
@@ -6453,29 +6447,29 @@
       <c r="J20" s="32"/>
       <c r="K20" s="32"/>
       <c r="L20" s="32"/>
-      <c r="M20" s="30"/>
-      <c r="N20" s="30"/>
-      <c r="O20" s="30"/>
-      <c r="P20" s="30"/>
-      <c r="Q20" s="30"/>
-      <c r="R20" s="30"/>
-      <c r="S20" s="30"/>
-      <c r="T20" s="30"/>
-      <c r="U20" s="30"/>
-      <c r="V20" s="30"/>
-      <c r="W20" s="30"/>
-      <c r="X20" s="30"/>
-      <c r="Y20" s="30"/>
-      <c r="Z20" s="30"/>
+      <c r="M20" s="28"/>
+      <c r="N20" s="28"/>
+      <c r="O20" s="28"/>
+      <c r="P20" s="28"/>
+      <c r="Q20" s="28"/>
+      <c r="R20" s="28"/>
+      <c r="S20" s="28"/>
+      <c r="T20" s="28"/>
+      <c r="U20" s="28"/>
+      <c r="V20" s="28"/>
+      <c r="W20" s="28"/>
+      <c r="X20" s="28"/>
+      <c r="Y20" s="28"/>
+      <c r="Z20" s="28"/>
     </row>
     <row r="21" spans="1:26" ht="46" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="30"/>
-      <c r="B21" s="30">
+      <c r="A21" s="28"/>
+      <c r="B21" s="28">
         <v>8</v>
       </c>
-      <c r="C21" s="30"/>
+      <c r="C21" s="28"/>
       <c r="D21" s="32" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="E21" s="32"/>
       <c r="F21" s="32"/>
@@ -6485,29 +6479,29 @@
       <c r="J21" s="32"/>
       <c r="K21" s="32"/>
       <c r="L21" s="32"/>
-      <c r="M21" s="30"/>
-      <c r="N21" s="30"/>
-      <c r="O21" s="30"/>
-      <c r="P21" s="30"/>
-      <c r="Q21" s="30"/>
-      <c r="R21" s="30"/>
-      <c r="S21" s="30"/>
-      <c r="T21" s="30"/>
-      <c r="U21" s="30"/>
-      <c r="V21" s="30"/>
-      <c r="W21" s="30"/>
-      <c r="X21" s="30"/>
-      <c r="Y21" s="30"/>
-      <c r="Z21" s="30"/>
+      <c r="M21" s="28"/>
+      <c r="N21" s="28"/>
+      <c r="O21" s="28"/>
+      <c r="P21" s="28"/>
+      <c r="Q21" s="28"/>
+      <c r="R21" s="28"/>
+      <c r="S21" s="28"/>
+      <c r="T21" s="28"/>
+      <c r="U21" s="28"/>
+      <c r="V21" s="28"/>
+      <c r="W21" s="28"/>
+      <c r="X21" s="28"/>
+      <c r="Y21" s="28"/>
+      <c r="Z21" s="28"/>
     </row>
     <row r="22" spans="1:26" ht="46" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="30"/>
-      <c r="B22" s="30">
+      <c r="A22" s="28"/>
+      <c r="B22" s="28">
         <v>9</v>
       </c>
-      <c r="C22" s="30"/>
+      <c r="C22" s="28"/>
       <c r="D22" s="32" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="E22" s="32"/>
       <c r="F22" s="32"/>
@@ -6517,29 +6511,29 @@
       <c r="J22" s="32"/>
       <c r="K22" s="32"/>
       <c r="L22" s="32"/>
-      <c r="M22" s="30"/>
-      <c r="N22" s="30"/>
-      <c r="O22" s="30"/>
-      <c r="P22" s="30"/>
-      <c r="Q22" s="30"/>
-      <c r="R22" s="30"/>
-      <c r="S22" s="30"/>
-      <c r="T22" s="30"/>
-      <c r="U22" s="30"/>
-      <c r="V22" s="30"/>
-      <c r="W22" s="30"/>
-      <c r="X22" s="30"/>
-      <c r="Y22" s="30"/>
-      <c r="Z22" s="30"/>
+      <c r="M22" s="28"/>
+      <c r="N22" s="28"/>
+      <c r="O22" s="28"/>
+      <c r="P22" s="28"/>
+      <c r="Q22" s="28"/>
+      <c r="R22" s="28"/>
+      <c r="S22" s="28"/>
+      <c r="T22" s="28"/>
+      <c r="U22" s="28"/>
+      <c r="V22" s="28"/>
+      <c r="W22" s="28"/>
+      <c r="X22" s="28"/>
+      <c r="Y22" s="28"/>
+      <c r="Z22" s="28"/>
     </row>
     <row r="23" spans="1:26" ht="46" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="30"/>
-      <c r="B23" s="30">
+      <c r="A23" s="28"/>
+      <c r="B23" s="28">
         <v>10</v>
       </c>
-      <c r="C23" s="30"/>
+      <c r="C23" s="28"/>
       <c r="D23" s="32" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="E23" s="32"/>
       <c r="F23" s="32"/>
@@ -6549,57 +6543,57 @@
       <c r="J23" s="32"/>
       <c r="K23" s="32"/>
       <c r="L23" s="32"/>
-      <c r="M23" s="30"/>
-      <c r="N23" s="30"/>
-      <c r="O23" s="30"/>
-      <c r="P23" s="30"/>
-      <c r="Q23" s="30"/>
-      <c r="R23" s="30"/>
-      <c r="S23" s="30"/>
-      <c r="T23" s="30"/>
-      <c r="U23" s="30"/>
-      <c r="V23" s="30"/>
-      <c r="W23" s="30"/>
-      <c r="X23" s="30"/>
-      <c r="Y23" s="30"/>
-      <c r="Z23" s="30"/>
+      <c r="M23" s="28"/>
+      <c r="N23" s="28"/>
+      <c r="O23" s="28"/>
+      <c r="P23" s="28"/>
+      <c r="Q23" s="28"/>
+      <c r="R23" s="28"/>
+      <c r="S23" s="28"/>
+      <c r="T23" s="28"/>
+      <c r="U23" s="28"/>
+      <c r="V23" s="28"/>
+      <c r="W23" s="28"/>
+      <c r="X23" s="28"/>
+      <c r="Y23" s="28"/>
+      <c r="Z23" s="28"/>
     </row>
     <row r="24" spans="1:26" ht="46" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="30"/>
-      <c r="B24" s="30">
+      <c r="A24" s="28"/>
+      <c r="B24" s="28">
         <v>11</v>
       </c>
-      <c r="C24" s="30"/>
-      <c r="D24" s="36" t="s">
-        <v>132</v>
-      </c>
-      <c r="E24" s="36"/>
-      <c r="F24" s="36"/>
-      <c r="G24" s="36"/>
-      <c r="H24" s="36"/>
-      <c r="I24" s="36"/>
-      <c r="J24" s="36"/>
-      <c r="K24" s="36"/>
-      <c r="L24" s="36"/>
-      <c r="M24" s="30"/>
-      <c r="N24" s="30"/>
-      <c r="O24" s="30"/>
-      <c r="P24" s="30"/>
-      <c r="Q24" s="30"/>
-      <c r="R24" s="30"/>
-      <c r="S24" s="30"/>
-      <c r="T24" s="30"/>
-      <c r="U24" s="30"/>
-      <c r="V24" s="30"/>
-      <c r="W24" s="30"/>
-      <c r="X24" s="30"/>
-      <c r="Y24" s="30"/>
-      <c r="Z24" s="30"/>
+      <c r="C24" s="28"/>
+      <c r="D24" s="33" t="s">
+        <v>126</v>
+      </c>
+      <c r="E24" s="33"/>
+      <c r="F24" s="33"/>
+      <c r="G24" s="33"/>
+      <c r="H24" s="33"/>
+      <c r="I24" s="33"/>
+      <c r="J24" s="33"/>
+      <c r="K24" s="33"/>
+      <c r="L24" s="33"/>
+      <c r="M24" s="28"/>
+      <c r="N24" s="28"/>
+      <c r="O24" s="28"/>
+      <c r="P24" s="28"/>
+      <c r="Q24" s="28"/>
+      <c r="R24" s="28"/>
+      <c r="S24" s="28"/>
+      <c r="T24" s="28"/>
+      <c r="U24" s="28"/>
+      <c r="V24" s="28"/>
+      <c r="W24" s="28"/>
+      <c r="X24" s="28"/>
+      <c r="Y24" s="28"/>
+      <c r="Z24" s="28"/>
     </row>
     <row r="25" spans="1:26" ht="46" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="30"/>
-      <c r="B25" s="30"/>
-      <c r="C25" s="30"/>
+      <c r="A25" s="28"/>
+      <c r="B25" s="28"/>
+      <c r="C25" s="28"/>
       <c r="D25" s="32"/>
       <c r="E25" s="32"/>
       <c r="F25" s="32"/>
@@ -6609,59 +6603,59 @@
       <c r="J25" s="32"/>
       <c r="K25" s="32"/>
       <c r="L25" s="32"/>
-      <c r="M25" s="30"/>
-      <c r="N25" s="30"/>
-      <c r="O25" s="30"/>
-      <c r="P25" s="30"/>
-      <c r="Q25" s="30"/>
-      <c r="R25" s="30"/>
-      <c r="S25" s="30"/>
-      <c r="T25" s="30"/>
-      <c r="U25" s="30"/>
-      <c r="V25" s="30"/>
-      <c r="W25" s="30"/>
-      <c r="X25" s="30"/>
-      <c r="Y25" s="30"/>
-      <c r="Z25" s="30"/>
+      <c r="M25" s="28"/>
+      <c r="N25" s="28"/>
+      <c r="O25" s="28"/>
+      <c r="P25" s="28"/>
+      <c r="Q25" s="28"/>
+      <c r="R25" s="28"/>
+      <c r="S25" s="28"/>
+      <c r="T25" s="28"/>
+      <c r="U25" s="28"/>
+      <c r="V25" s="28"/>
+      <c r="W25" s="28"/>
+      <c r="X25" s="28"/>
+      <c r="Y25" s="28"/>
+      <c r="Z25" s="28"/>
     </row>
     <row r="26" spans="1:26" ht="46" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="30"/>
-      <c r="B26" s="30"/>
-      <c r="C26" s="30"/>
-      <c r="D26" s="31" t="s">
-        <v>133</v>
-      </c>
-      <c r="E26" s="31"/>
-      <c r="F26" s="31"/>
-      <c r="G26" s="31"/>
-      <c r="H26" s="31"/>
-      <c r="I26" s="31"/>
-      <c r="J26" s="31"/>
-      <c r="K26" s="31"/>
-      <c r="L26" s="31"/>
-      <c r="M26" s="30"/>
-      <c r="N26" s="30"/>
-      <c r="O26" s="30"/>
-      <c r="P26" s="30"/>
-      <c r="Q26" s="30"/>
-      <c r="R26" s="30"/>
-      <c r="S26" s="30"/>
-      <c r="T26" s="30"/>
-      <c r="U26" s="30"/>
-      <c r="V26" s="30"/>
-      <c r="W26" s="30"/>
-      <c r="X26" s="30"/>
-      <c r="Y26" s="30"/>
-      <c r="Z26" s="30"/>
+      <c r="A26" s="28"/>
+      <c r="B26" s="28"/>
+      <c r="C26" s="28"/>
+      <c r="D26" s="34" t="s">
+        <v>127</v>
+      </c>
+      <c r="E26" s="34"/>
+      <c r="F26" s="34"/>
+      <c r="G26" s="34"/>
+      <c r="H26" s="34"/>
+      <c r="I26" s="34"/>
+      <c r="J26" s="34"/>
+      <c r="K26" s="34"/>
+      <c r="L26" s="34"/>
+      <c r="M26" s="28"/>
+      <c r="N26" s="28"/>
+      <c r="O26" s="28"/>
+      <c r="P26" s="28"/>
+      <c r="Q26" s="28"/>
+      <c r="R26" s="28"/>
+      <c r="S26" s="28"/>
+      <c r="T26" s="28"/>
+      <c r="U26" s="28"/>
+      <c r="V26" s="28"/>
+      <c r="W26" s="28"/>
+      <c r="X26" s="28"/>
+      <c r="Y26" s="28"/>
+      <c r="Z26" s="28"/>
     </row>
     <row r="27" spans="1:26" ht="46" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="30"/>
-      <c r="B27" s="30">
+      <c r="A27" s="28"/>
+      <c r="B27" s="28">
         <v>1</v>
       </c>
-      <c r="C27" s="30"/>
+      <c r="C27" s="28"/>
       <c r="D27" s="32" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="E27" s="32"/>
       <c r="F27" s="32"/>
@@ -6671,29 +6665,29 @@
       <c r="J27" s="32"/>
       <c r="K27" s="32"/>
       <c r="L27" s="32"/>
-      <c r="M27" s="30"/>
-      <c r="N27" s="30"/>
-      <c r="O27" s="30"/>
-      <c r="P27" s="30"/>
-      <c r="Q27" s="30"/>
-      <c r="R27" s="30"/>
-      <c r="S27" s="30"/>
-      <c r="T27" s="30"/>
-      <c r="U27" s="30"/>
-      <c r="V27" s="30"/>
-      <c r="W27" s="30"/>
-      <c r="X27" s="30"/>
-      <c r="Y27" s="30"/>
-      <c r="Z27" s="30"/>
+      <c r="M27" s="28"/>
+      <c r="N27" s="28"/>
+      <c r="O27" s="28"/>
+      <c r="P27" s="28"/>
+      <c r="Q27" s="28"/>
+      <c r="R27" s="28"/>
+      <c r="S27" s="28"/>
+      <c r="T27" s="28"/>
+      <c r="U27" s="28"/>
+      <c r="V27" s="28"/>
+      <c r="W27" s="28"/>
+      <c r="X27" s="28"/>
+      <c r="Y27" s="28"/>
+      <c r="Z27" s="28"/>
     </row>
     <row r="28" spans="1:26" ht="46" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="30"/>
-      <c r="B28" s="30">
+      <c r="A28" s="28"/>
+      <c r="B28" s="28">
         <v>2</v>
       </c>
-      <c r="C28" s="30"/>
+      <c r="C28" s="28"/>
       <c r="D28" s="32" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="E28" s="32"/>
       <c r="F28" s="32"/>
@@ -6703,29 +6697,29 @@
       <c r="J28" s="32"/>
       <c r="K28" s="32"/>
       <c r="L28" s="32"/>
-      <c r="M28" s="30"/>
-      <c r="N28" s="30"/>
-      <c r="O28" s="30"/>
-      <c r="P28" s="30"/>
-      <c r="Q28" s="30"/>
-      <c r="R28" s="30"/>
-      <c r="S28" s="30"/>
-      <c r="T28" s="30"/>
-      <c r="U28" s="30"/>
-      <c r="V28" s="30"/>
-      <c r="W28" s="30"/>
-      <c r="X28" s="30"/>
-      <c r="Y28" s="30"/>
-      <c r="Z28" s="30"/>
+      <c r="M28" s="28"/>
+      <c r="N28" s="28"/>
+      <c r="O28" s="28"/>
+      <c r="P28" s="28"/>
+      <c r="Q28" s="28"/>
+      <c r="R28" s="28"/>
+      <c r="S28" s="28"/>
+      <c r="T28" s="28"/>
+      <c r="U28" s="28"/>
+      <c r="V28" s="28"/>
+      <c r="W28" s="28"/>
+      <c r="X28" s="28"/>
+      <c r="Y28" s="28"/>
+      <c r="Z28" s="28"/>
     </row>
     <row r="29" spans="1:26" ht="46" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="30"/>
-      <c r="B29" s="30">
+      <c r="A29" s="28"/>
+      <c r="B29" s="28">
         <v>3</v>
       </c>
-      <c r="C29" s="30"/>
+      <c r="C29" s="28"/>
       <c r="D29" s="32" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="E29" s="32"/>
       <c r="F29" s="32"/>
@@ -6735,29 +6729,29 @@
       <c r="J29" s="32"/>
       <c r="K29" s="32"/>
       <c r="L29" s="32"/>
-      <c r="M29" s="30"/>
-      <c r="N29" s="30"/>
-      <c r="O29" s="30"/>
-      <c r="P29" s="30"/>
-      <c r="Q29" s="30"/>
-      <c r="R29" s="30"/>
-      <c r="S29" s="30"/>
-      <c r="T29" s="30"/>
-      <c r="U29" s="30"/>
-      <c r="V29" s="30"/>
-      <c r="W29" s="30"/>
-      <c r="X29" s="30"/>
-      <c r="Y29" s="30"/>
-      <c r="Z29" s="30"/>
+      <c r="M29" s="28"/>
+      <c r="N29" s="28"/>
+      <c r="O29" s="28"/>
+      <c r="P29" s="28"/>
+      <c r="Q29" s="28"/>
+      <c r="R29" s="28"/>
+      <c r="S29" s="28"/>
+      <c r="T29" s="28"/>
+      <c r="U29" s="28"/>
+      <c r="V29" s="28"/>
+      <c r="W29" s="28"/>
+      <c r="X29" s="28"/>
+      <c r="Y29" s="28"/>
+      <c r="Z29" s="28"/>
     </row>
     <row r="30" spans="1:26" ht="46" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="30"/>
-      <c r="B30" s="30">
+      <c r="A30" s="28"/>
+      <c r="B30" s="28">
         <v>4</v>
       </c>
-      <c r="C30" s="30"/>
+      <c r="C30" s="28"/>
       <c r="D30" s="32" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="E30" s="32"/>
       <c r="F30" s="32"/>
@@ -6767,29 +6761,29 @@
       <c r="J30" s="32"/>
       <c r="K30" s="32"/>
       <c r="L30" s="32"/>
-      <c r="M30" s="30"/>
-      <c r="N30" s="30"/>
-      <c r="O30" s="30"/>
-      <c r="P30" s="30"/>
-      <c r="Q30" s="30"/>
-      <c r="R30" s="30"/>
-      <c r="S30" s="30"/>
-      <c r="T30" s="30"/>
-      <c r="U30" s="30"/>
-      <c r="V30" s="30"/>
-      <c r="W30" s="30"/>
-      <c r="X30" s="30"/>
-      <c r="Y30" s="30"/>
-      <c r="Z30" s="30"/>
+      <c r="M30" s="28"/>
+      <c r="N30" s="28"/>
+      <c r="O30" s="28"/>
+      <c r="P30" s="28"/>
+      <c r="Q30" s="28"/>
+      <c r="R30" s="28"/>
+      <c r="S30" s="28"/>
+      <c r="T30" s="28"/>
+      <c r="U30" s="28"/>
+      <c r="V30" s="28"/>
+      <c r="W30" s="28"/>
+      <c r="X30" s="28"/>
+      <c r="Y30" s="28"/>
+      <c r="Z30" s="28"/>
     </row>
     <row r="31" spans="1:26" ht="46" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="30"/>
-      <c r="B31" s="30">
+      <c r="A31" s="28"/>
+      <c r="B31" s="28">
         <v>5</v>
       </c>
-      <c r="C31" s="30"/>
+      <c r="C31" s="28"/>
       <c r="D31" s="32" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="E31" s="32"/>
       <c r="F31" s="32"/>
@@ -6799,242 +6793,223 @@
       <c r="J31" s="32"/>
       <c r="K31" s="32"/>
       <c r="L31" s="32"/>
-      <c r="M31" s="30"/>
-      <c r="N31" s="30"/>
-      <c r="O31" s="30"/>
-      <c r="P31" s="30"/>
-      <c r="Q31" s="30"/>
-      <c r="R31" s="30"/>
-      <c r="S31" s="30"/>
-      <c r="T31" s="30"/>
-      <c r="U31" s="30"/>
-      <c r="V31" s="30"/>
-      <c r="W31" s="30"/>
-      <c r="X31" s="30"/>
-      <c r="Y31" s="30"/>
-      <c r="Z31" s="30"/>
+      <c r="M31" s="28"/>
+      <c r="N31" s="28"/>
+      <c r="O31" s="28"/>
+      <c r="P31" s="28"/>
+      <c r="Q31" s="28"/>
+      <c r="R31" s="28"/>
+      <c r="S31" s="28"/>
+      <c r="T31" s="28"/>
+      <c r="U31" s="28"/>
+      <c r="V31" s="28"/>
+      <c r="W31" s="28"/>
+      <c r="X31" s="28"/>
+      <c r="Y31" s="28"/>
+      <c r="Z31" s="28"/>
     </row>
     <row r="32" spans="1:26" ht="46" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="30"/>
-      <c r="B32" s="30"/>
-      <c r="C32" s="30"/>
-      <c r="D32" s="30"/>
-      <c r="E32" s="30"/>
-      <c r="F32" s="30"/>
-      <c r="G32" s="30"/>
-      <c r="H32" s="30"/>
-      <c r="I32" s="34"/>
-      <c r="J32" s="34"/>
-      <c r="K32" s="34"/>
-      <c r="L32" s="30"/>
-      <c r="M32" s="30"/>
-      <c r="N32" s="30"/>
-      <c r="O32" s="30"/>
-      <c r="P32" s="30"/>
-      <c r="Q32" s="30"/>
-      <c r="R32" s="30"/>
-      <c r="S32" s="30"/>
-      <c r="T32" s="30"/>
-      <c r="U32" s="30"/>
-      <c r="V32" s="30"/>
-      <c r="W32" s="30"/>
-      <c r="X32" s="30"/>
-      <c r="Y32" s="30"/>
-      <c r="Z32" s="30"/>
+      <c r="A32" s="28"/>
+      <c r="B32" s="28"/>
+      <c r="C32" s="28"/>
+      <c r="D32" s="28"/>
+      <c r="E32" s="28"/>
+      <c r="F32" s="28"/>
+      <c r="G32" s="28"/>
+      <c r="H32" s="28"/>
+      <c r="I32" s="30"/>
+      <c r="J32" s="30"/>
+      <c r="K32" s="30"/>
+      <c r="L32" s="28"/>
+      <c r="M32" s="28"/>
+      <c r="N32" s="28"/>
+      <c r="O32" s="28"/>
+      <c r="P32" s="28"/>
+      <c r="Q32" s="28"/>
+      <c r="R32" s="28"/>
+      <c r="S32" s="28"/>
+      <c r="T32" s="28"/>
+      <c r="U32" s="28"/>
+      <c r="V32" s="28"/>
+      <c r="W32" s="28"/>
+      <c r="X32" s="28"/>
+      <c r="Y32" s="28"/>
+      <c r="Z32" s="28"/>
     </row>
     <row r="33" spans="1:26" ht="46" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="30"/>
-      <c r="B33" s="30"/>
-      <c r="C33" s="30"/>
-      <c r="D33" s="30"/>
-      <c r="E33" s="30"/>
-      <c r="F33" s="30"/>
-      <c r="G33" s="30"/>
-      <c r="H33" s="30"/>
-      <c r="I33" s="34"/>
-      <c r="J33" s="34"/>
-      <c r="K33" s="34"/>
-      <c r="L33" s="30"/>
-      <c r="M33" s="30"/>
-      <c r="N33" s="30"/>
-      <c r="O33" s="30"/>
-      <c r="P33" s="30"/>
-      <c r="Q33" s="30"/>
-      <c r="R33" s="30"/>
-      <c r="S33" s="30"/>
-      <c r="T33" s="30"/>
-      <c r="U33" s="30"/>
-      <c r="V33" s="30"/>
-      <c r="W33" s="30"/>
-      <c r="X33" s="30"/>
-      <c r="Y33" s="30"/>
-      <c r="Z33" s="30"/>
+      <c r="A33" s="28"/>
+      <c r="B33" s="28"/>
+      <c r="C33" s="28"/>
+      <c r="D33" s="28"/>
+      <c r="E33" s="28"/>
+      <c r="F33" s="28"/>
+      <c r="G33" s="28"/>
+      <c r="H33" s="28"/>
+      <c r="I33" s="30"/>
+      <c r="J33" s="30"/>
+      <c r="K33" s="30"/>
+      <c r="L33" s="28"/>
+      <c r="M33" s="28"/>
+      <c r="N33" s="28"/>
+      <c r="O33" s="28"/>
+      <c r="P33" s="28"/>
+      <c r="Q33" s="28"/>
+      <c r="R33" s="28"/>
+      <c r="S33" s="28"/>
+      <c r="T33" s="28"/>
+      <c r="U33" s="28"/>
+      <c r="V33" s="28"/>
+      <c r="W33" s="28"/>
+      <c r="X33" s="28"/>
+      <c r="Y33" s="28"/>
+      <c r="Z33" s="28"/>
     </row>
     <row r="34" spans="1:26" ht="46" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="30"/>
-      <c r="B34" s="30"/>
-      <c r="C34" s="30"/>
-      <c r="D34" s="30"/>
-      <c r="E34" s="30"/>
-      <c r="F34" s="30"/>
-      <c r="G34" s="30"/>
-      <c r="H34" s="30"/>
-      <c r="I34" s="34"/>
-      <c r="J34" s="34"/>
-      <c r="K34" s="34"/>
-      <c r="L34" s="30"/>
-      <c r="M34" s="30"/>
-      <c r="N34" s="30"/>
-      <c r="O34" s="30"/>
-      <c r="P34" s="30"/>
-      <c r="Q34" s="30"/>
-      <c r="R34" s="30"/>
-      <c r="S34" s="30"/>
-      <c r="T34" s="30"/>
-      <c r="U34" s="30"/>
-      <c r="V34" s="30"/>
-      <c r="W34" s="30"/>
-      <c r="X34" s="30"/>
-      <c r="Y34" s="30"/>
-      <c r="Z34" s="30"/>
+      <c r="A34" s="28"/>
+      <c r="B34" s="28"/>
+      <c r="C34" s="28"/>
+      <c r="D34" s="28"/>
+      <c r="E34" s="28"/>
+      <c r="F34" s="28"/>
+      <c r="G34" s="28"/>
+      <c r="H34" s="28"/>
+      <c r="I34" s="30"/>
+      <c r="J34" s="30"/>
+      <c r="K34" s="30"/>
+      <c r="L34" s="28"/>
+      <c r="M34" s="28"/>
+      <c r="N34" s="28"/>
+      <c r="O34" s="28"/>
+      <c r="P34" s="28"/>
+      <c r="Q34" s="28"/>
+      <c r="R34" s="28"/>
+      <c r="S34" s="28"/>
+      <c r="T34" s="28"/>
+      <c r="U34" s="28"/>
+      <c r="V34" s="28"/>
+      <c r="W34" s="28"/>
+      <c r="X34" s="28"/>
+      <c r="Y34" s="28"/>
+      <c r="Z34" s="28"/>
     </row>
     <row r="35" spans="1:26" ht="46" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="30"/>
-      <c r="B35" s="30"/>
-      <c r="C35" s="30"/>
-      <c r="D35" s="30"/>
-      <c r="E35" s="30"/>
-      <c r="F35" s="30"/>
-      <c r="G35" s="30"/>
-      <c r="H35" s="30"/>
-      <c r="I35" s="34"/>
-      <c r="J35" s="34"/>
-      <c r="K35" s="34"/>
-      <c r="L35" s="30"/>
-      <c r="M35" s="30"/>
-      <c r="N35" s="30"/>
-      <c r="O35" s="30"/>
-      <c r="P35" s="30"/>
-      <c r="Q35" s="30"/>
-      <c r="R35" s="30"/>
-      <c r="S35" s="30"/>
-      <c r="T35" s="30"/>
-      <c r="U35" s="30"/>
-      <c r="V35" s="30"/>
-      <c r="W35" s="30"/>
-      <c r="X35" s="30"/>
-      <c r="Y35" s="30"/>
-      <c r="Z35" s="30"/>
+      <c r="A35" s="28"/>
+      <c r="B35" s="28"/>
+      <c r="C35" s="28"/>
+      <c r="D35" s="28"/>
+      <c r="E35" s="28"/>
+      <c r="F35" s="28"/>
+      <c r="G35" s="28"/>
+      <c r="H35" s="28"/>
+      <c r="I35" s="30"/>
+      <c r="J35" s="30"/>
+      <c r="K35" s="30"/>
+      <c r="L35" s="28"/>
+      <c r="M35" s="28"/>
+      <c r="N35" s="28"/>
+      <c r="O35" s="28"/>
+      <c r="P35" s="28"/>
+      <c r="Q35" s="28"/>
+      <c r="R35" s="28"/>
+      <c r="S35" s="28"/>
+      <c r="T35" s="28"/>
+      <c r="U35" s="28"/>
+      <c r="V35" s="28"/>
+      <c r="W35" s="28"/>
+      <c r="X35" s="28"/>
+      <c r="Y35" s="28"/>
+      <c r="Z35" s="28"/>
     </row>
     <row r="36" spans="1:26" ht="46" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="30"/>
-      <c r="B36" s="30"/>
-      <c r="C36" s="30"/>
-      <c r="D36" s="30"/>
-      <c r="E36" s="30"/>
-      <c r="F36" s="30"/>
-      <c r="G36" s="30"/>
-      <c r="H36" s="30"/>
-      <c r="I36" s="34"/>
-      <c r="J36" s="34"/>
-      <c r="K36" s="34"/>
-      <c r="L36" s="30"/>
-      <c r="M36" s="30"/>
-      <c r="N36" s="30"/>
-      <c r="O36" s="30"/>
-      <c r="P36" s="30"/>
-      <c r="Q36" s="30"/>
-      <c r="R36" s="30"/>
-      <c r="S36" s="30"/>
-      <c r="T36" s="30"/>
-      <c r="U36" s="30"/>
-      <c r="V36" s="30"/>
-      <c r="W36" s="30"/>
-      <c r="X36" s="30"/>
-      <c r="Y36" s="30"/>
-      <c r="Z36" s="30"/>
+      <c r="A36" s="28"/>
+      <c r="B36" s="28"/>
+      <c r="C36" s="28"/>
+      <c r="D36" s="28"/>
+      <c r="E36" s="28"/>
+      <c r="F36" s="28"/>
+      <c r="G36" s="28"/>
+      <c r="H36" s="28"/>
+      <c r="I36" s="30"/>
+      <c r="J36" s="30"/>
+      <c r="K36" s="30"/>
+      <c r="L36" s="28"/>
+      <c r="M36" s="28"/>
+      <c r="N36" s="28"/>
+      <c r="O36" s="28"/>
+      <c r="P36" s="28"/>
+      <c r="Q36" s="28"/>
+      <c r="R36" s="28"/>
+      <c r="S36" s="28"/>
+      <c r="T36" s="28"/>
+      <c r="U36" s="28"/>
+      <c r="V36" s="28"/>
+      <c r="W36" s="28"/>
+      <c r="X36" s="28"/>
+      <c r="Y36" s="28"/>
+      <c r="Z36" s="28"/>
     </row>
     <row r="37" spans="1:26" ht="46" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B37" s="30"/>
-      <c r="C37" s="30"/>
-      <c r="D37" s="30"/>
-      <c r="E37" s="30"/>
-      <c r="F37" s="30"/>
-      <c r="G37" s="30"/>
-      <c r="H37" s="30"/>
-      <c r="I37" s="30"/>
-      <c r="J37" s="30"/>
-      <c r="K37" s="34"/>
-      <c r="L37" s="30"/>
-      <c r="M37" s="30"/>
-      <c r="N37" s="30"/>
-      <c r="O37" s="30"/>
-      <c r="P37" s="30"/>
-      <c r="Q37" s="30"/>
-      <c r="R37" s="30"/>
-      <c r="S37" s="30"/>
-      <c r="T37" s="30"/>
-      <c r="U37" s="30"/>
-      <c r="V37" s="30"/>
-      <c r="W37" s="30"/>
-      <c r="X37" s="30"/>
-      <c r="Y37" s="30"/>
-      <c r="Z37" s="30"/>
+      <c r="B37" s="28"/>
+      <c r="C37" s="28"/>
+      <c r="D37" s="28"/>
+      <c r="E37" s="28"/>
+      <c r="F37" s="28"/>
+      <c r="G37" s="28"/>
+      <c r="H37" s="28"/>
+      <c r="I37" s="28"/>
+      <c r="J37" s="28"/>
+      <c r="K37" s="30"/>
+      <c r="L37" s="28"/>
+      <c r="M37" s="28"/>
+      <c r="N37" s="28"/>
+      <c r="O37" s="28"/>
+      <c r="P37" s="28"/>
+      <c r="Q37" s="28"/>
+      <c r="R37" s="28"/>
+      <c r="S37" s="28"/>
+      <c r="T37" s="28"/>
+      <c r="U37" s="28"/>
+      <c r="V37" s="28"/>
+      <c r="W37" s="28"/>
+      <c r="X37" s="28"/>
+      <c r="Y37" s="28"/>
+      <c r="Z37" s="28"/>
     </row>
     <row r="38" spans="1:26" ht="46" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B38" s="30"/>
-      <c r="C38" s="30"/>
-      <c r="D38" s="30"/>
-      <c r="E38" s="30"/>
-      <c r="F38" s="30"/>
-      <c r="G38" s="30"/>
-      <c r="H38" s="30"/>
-      <c r="I38" s="30"/>
-      <c r="J38" s="30"/>
-      <c r="K38" s="34"/>
-      <c r="L38" s="30"/>
-      <c r="M38" s="30"/>
-      <c r="N38" s="30"/>
-      <c r="O38" s="30"/>
-      <c r="P38" s="30"/>
-      <c r="Q38" s="30"/>
-      <c r="R38" s="30"/>
-      <c r="S38" s="30"/>
-      <c r="T38" s="30"/>
-      <c r="U38" s="30"/>
-      <c r="V38" s="30"/>
-      <c r="W38" s="30"/>
-      <c r="X38" s="30"/>
-      <c r="Y38" s="30"/>
-      <c r="Z38" s="30"/>
+      <c r="B38" s="28"/>
+      <c r="C38" s="28"/>
+      <c r="D38" s="28"/>
+      <c r="E38" s="28"/>
+      <c r="F38" s="28"/>
+      <c r="G38" s="28"/>
+      <c r="H38" s="28"/>
+      <c r="I38" s="28"/>
+      <c r="J38" s="28"/>
+      <c r="K38" s="30"/>
+      <c r="L38" s="28"/>
+      <c r="M38" s="28"/>
+      <c r="N38" s="28"/>
+      <c r="O38" s="28"/>
+      <c r="P38" s="28"/>
+      <c r="Q38" s="28"/>
+      <c r="R38" s="28"/>
+      <c r="S38" s="28"/>
+      <c r="T38" s="28"/>
+      <c r="U38" s="28"/>
+      <c r="V38" s="28"/>
+      <c r="W38" s="28"/>
+      <c r="X38" s="28"/>
+      <c r="Y38" s="28"/>
+      <c r="Z38" s="28"/>
     </row>
     <row r="39" spans="1:26" ht="46" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="N39" s="33">
+      <c r="N39" s="29">
         <f>N38+Q36</f>
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="D31:L31"/>
-    <mergeCell ref="D28:L28"/>
-    <mergeCell ref="D29:L29"/>
-    <mergeCell ref="D30:L30"/>
-    <mergeCell ref="D23:L23"/>
-    <mergeCell ref="D24:L24"/>
-    <mergeCell ref="D25:L25"/>
-    <mergeCell ref="D26:L26"/>
-    <mergeCell ref="D27:L27"/>
-    <mergeCell ref="D18:L18"/>
-    <mergeCell ref="D19:L19"/>
-    <mergeCell ref="D20:L20"/>
-    <mergeCell ref="D21:L21"/>
-    <mergeCell ref="D22:L22"/>
-    <mergeCell ref="D12:L12"/>
-    <mergeCell ref="D14:L14"/>
-    <mergeCell ref="D15:L15"/>
-    <mergeCell ref="D16:L16"/>
-    <mergeCell ref="D17:L17"/>
     <mergeCell ref="D9:L9"/>
     <mergeCell ref="D10:L10"/>
     <mergeCell ref="D7:L7"/>
@@ -7045,6 +7020,25 @@
     <mergeCell ref="D8:L8"/>
     <mergeCell ref="D5:L5"/>
     <mergeCell ref="D6:L6"/>
+    <mergeCell ref="D12:L12"/>
+    <mergeCell ref="D14:L14"/>
+    <mergeCell ref="D15:L15"/>
+    <mergeCell ref="D16:L16"/>
+    <mergeCell ref="D17:L17"/>
+    <mergeCell ref="D18:L18"/>
+    <mergeCell ref="D19:L19"/>
+    <mergeCell ref="D20:L20"/>
+    <mergeCell ref="D21:L21"/>
+    <mergeCell ref="D22:L22"/>
+    <mergeCell ref="D31:L31"/>
+    <mergeCell ref="D28:L28"/>
+    <mergeCell ref="D29:L29"/>
+    <mergeCell ref="D30:L30"/>
+    <mergeCell ref="D23:L23"/>
+    <mergeCell ref="D24:L24"/>
+    <mergeCell ref="D25:L25"/>
+    <mergeCell ref="D26:L26"/>
+    <mergeCell ref="D27:L27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -7173,7 +7167,7 @@
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B6" s="6" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>39</v>
@@ -7702,55 +7696,55 @@
         <v>46</v>
       </c>
       <c r="D19" s="2">
-        <f>D9*D6</f>
+        <f t="shared" ref="D19:P19" si="5">D9*D6</f>
         <v>0</v>
       </c>
       <c r="E19" s="2">
-        <f>E9*E6</f>
+        <f t="shared" si="5"/>
         <v>26250</v>
       </c>
       <c r="F19" s="2">
-        <f>F9*F6</f>
+        <f t="shared" si="5"/>
         <v>22500</v>
       </c>
       <c r="G19" s="2">
-        <f>G9*G6</f>
+        <f t="shared" si="5"/>
         <v>31500</v>
       </c>
       <c r="H19" s="2">
-        <f>H9*H6</f>
+        <f t="shared" si="5"/>
         <v>26250</v>
       </c>
       <c r="I19" s="2">
-        <f>I9*I6</f>
+        <f t="shared" si="5"/>
         <v>23400</v>
       </c>
       <c r="J19" s="2">
-        <f>J9*J6</f>
+        <f t="shared" si="5"/>
         <v>33000</v>
       </c>
       <c r="K19" s="2">
-        <f>K9*K6</f>
+        <f t="shared" si="5"/>
         <v>17250</v>
       </c>
       <c r="L19" s="2">
-        <f>L9*L6</f>
+        <f t="shared" si="5"/>
         <v>13500</v>
       </c>
       <c r="M19" s="2">
-        <f>M9*M6</f>
+        <f t="shared" si="5"/>
         <v>23250</v>
       </c>
       <c r="N19" s="2">
-        <f>N9*N6</f>
+        <f t="shared" si="5"/>
         <v>19200</v>
       </c>
       <c r="O19" s="2">
-        <f>O9*O6</f>
+        <f t="shared" si="5"/>
         <v>14175</v>
       </c>
       <c r="P19" s="2">
-        <f>P9*P6</f>
+        <f t="shared" si="5"/>
         <v>11700</v>
       </c>
     </row>
@@ -7762,55 +7756,55 @@
         <v>65</v>
       </c>
       <c r="D20" s="2">
-        <f>D10*D6</f>
+        <f t="shared" ref="D20:P20" si="6">D10*D6</f>
         <v>0</v>
       </c>
       <c r="E20" s="2">
-        <f>E10*E6</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F20" s="2">
-        <f>F10*F6</f>
+        <f t="shared" si="6"/>
         <v>-900</v>
       </c>
       <c r="G20" s="2">
-        <f>G10*G6</f>
+        <f t="shared" si="6"/>
         <v>-2250</v>
       </c>
       <c r="H20" s="2">
-        <f>H10*H6</f>
+        <f t="shared" si="6"/>
         <v>-2025</v>
       </c>
       <c r="I20" s="2">
-        <f>I10*I6</f>
+        <f t="shared" si="6"/>
         <v>-2775</v>
       </c>
       <c r="J20" s="2">
-        <f>J10*J6</f>
+        <f t="shared" si="6"/>
         <v>-1500</v>
       </c>
       <c r="K20" s="2">
-        <f>K10*K6</f>
+        <f t="shared" si="6"/>
         <v>-5250</v>
       </c>
       <c r="L20" s="2">
-        <f>L10*L6</f>
+        <f t="shared" si="6"/>
         <v>-2250</v>
       </c>
       <c r="M20" s="2">
-        <f>M10*M6</f>
+        <f t="shared" si="6"/>
         <v>-4200</v>
       </c>
       <c r="N20" s="2">
-        <f>N10*N6</f>
+        <f t="shared" si="6"/>
         <v>-8250</v>
       </c>
       <c r="O20" s="2">
-        <f>O10*O6</f>
+        <f t="shared" si="6"/>
         <v>-2925</v>
       </c>
       <c r="P20" s="2">
-        <f>P10*P6</f>
+        <f t="shared" si="6"/>
         <v>-450</v>
       </c>
     </row>
@@ -7846,47 +7840,47 @@
         <v>#DIV/0!</v>
       </c>
       <c r="F22" s="12">
-        <f t="shared" ref="F22:P22" si="5">-(F20/E23)</f>
+        <f t="shared" ref="F22:P22" si="7">-(F20/E23)</f>
         <v>3.4285714285714287E-2</v>
       </c>
       <c r="G22" s="12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>4.7021943573667714E-2</v>
       </c>
       <c r="H22" s="12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2.6264591439688716E-2</v>
       </c>
       <c r="I22" s="12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2.7387120651369355E-2</v>
       </c>
       <c r="J22" s="12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1.2300123001230012E-2</v>
       </c>
       <c r="K22" s="12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>3.4213098729227759E-2</v>
       </c>
       <c r="L22" s="12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1.3599274705349048E-2</v>
       </c>
       <c r="M22" s="12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2.3769100169779286E-2</v>
       </c>
       <c r="N22" s="12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>4.2145593869731802E-2</v>
       </c>
       <c r="O22" s="12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1.4150943396226415E-2</v>
       </c>
       <c r="P22" s="12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2.0646937370956643E-3</v>
       </c>
     </row>
@@ -7901,51 +7895,51 @@
         <v>0</v>
       </c>
       <c r="E23" s="2">
-        <f t="shared" ref="E23:P23" si="6">D23+E24</f>
+        <f t="shared" ref="E23:P23" si="8">D23+E24</f>
         <v>26250</v>
       </c>
       <c r="F23" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>47850</v>
       </c>
       <c r="G23" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>77100</v>
       </c>
       <c r="H23" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>101325</v>
       </c>
       <c r="I23" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>121950</v>
       </c>
       <c r="J23" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>153450</v>
       </c>
       <c r="K23" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>165450</v>
       </c>
       <c r="L23" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>176700</v>
       </c>
       <c r="M23" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>195750</v>
       </c>
       <c r="N23" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>206700</v>
       </c>
       <c r="O23" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>217950</v>
       </c>
       <c r="P23" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>229200</v>
       </c>
     </row>
@@ -7960,51 +7954,51 @@
         <v>0</v>
       </c>
       <c r="E24" s="2">
-        <f t="shared" ref="E24:P24" si="7">E19+E20</f>
+        <f t="shared" ref="E24:P24" si="9">E19+E20</f>
         <v>26250</v>
       </c>
       <c r="F24" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>21600</v>
       </c>
       <c r="G24" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>29250</v>
       </c>
       <c r="H24" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>24225</v>
       </c>
       <c r="I24" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>20625</v>
       </c>
       <c r="J24" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>31500</v>
       </c>
       <c r="K24" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>12000</v>
       </c>
       <c r="L24" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>11250</v>
       </c>
       <c r="M24" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>19050</v>
       </c>
       <c r="N24" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>10950</v>
       </c>
       <c r="O24" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>11250</v>
       </c>
       <c r="P24" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>11250</v>
       </c>
     </row>
@@ -8019,51 +8013,51 @@
         <v>0</v>
       </c>
       <c r="E25" s="9" t="e">
-        <f t="shared" ref="E25:P25" si="8">-E20/E15</f>
+        <f t="shared" ref="E25:P25" si="10">-E20/E15</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F25" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>3.4285714285714287E-2</v>
       </c>
       <c r="G25" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>4.7021943573667714E-2</v>
       </c>
       <c r="H25" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>2.6264591439688716E-2</v>
       </c>
       <c r="I25" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>2.7387120651369355E-2</v>
       </c>
       <c r="J25" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1.2300123001230012E-2</v>
       </c>
       <c r="K25" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>3.4213098729227759E-2</v>
       </c>
       <c r="L25" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1.3599274705349048E-2</v>
       </c>
       <c r="M25" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>2.3769100169779286E-2</v>
       </c>
       <c r="N25" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>4.2145593869731802E-2</v>
       </c>
       <c r="O25" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1.4150943396226415E-2</v>
       </c>
       <c r="P25" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>2.0646937370956643E-3</v>
       </c>
     </row>
@@ -8097,47 +8091,47 @@
         <v>75000</v>
       </c>
       <c r="F27" s="2">
-        <f t="shared" ref="F27:P27" si="9">F19/F9*1000</f>
+        <f t="shared" ref="F27:P27" si="11">F19/F9*1000</f>
         <v>75000</v>
       </c>
       <c r="G27" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>75000</v>
       </c>
       <c r="H27" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>75000</v>
       </c>
       <c r="I27" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>75000</v>
       </c>
       <c r="J27" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>75000</v>
       </c>
       <c r="K27" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>75000</v>
       </c>
       <c r="L27" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>75000</v>
       </c>
       <c r="M27" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>75000</v>
       </c>
       <c r="N27" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>75000</v>
       </c>
       <c r="O27" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>75000</v>
       </c>
       <c r="P27" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>75000</v>
       </c>
     </row>
@@ -8154,47 +8148,47 @@
         <v>75000</v>
       </c>
       <c r="F28" s="2">
-        <f t="shared" ref="F28:P28" si="10">F23/F12*1000</f>
+        <f t="shared" ref="F28:P28" si="12">F23/F12*1000</f>
         <v>75000</v>
       </c>
       <c r="G28" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>75000</v>
       </c>
       <c r="H28" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>75000</v>
       </c>
       <c r="I28" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>75000</v>
       </c>
       <c r="J28" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>75000</v>
       </c>
       <c r="K28" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>75000</v>
       </c>
       <c r="L28" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>75000</v>
       </c>
       <c r="M28" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>75000</v>
       </c>
       <c r="N28" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>75000</v>
       </c>
       <c r="O28" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>75000</v>
       </c>
       <c r="P28" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>75000</v>
       </c>
     </row>
@@ -8226,51 +8220,51 @@
         <v>0</v>
       </c>
       <c r="E30" s="2">
-        <f t="shared" ref="E30:P30" si="11">E23</f>
+        <f t="shared" ref="E30:P30" si="13">E23</f>
         <v>26250</v>
       </c>
       <c r="F30" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>47850</v>
       </c>
       <c r="G30" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>77100</v>
       </c>
       <c r="H30" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>101325</v>
       </c>
       <c r="I30" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>121950</v>
       </c>
       <c r="J30" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>153450</v>
       </c>
       <c r="K30" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>165450</v>
       </c>
       <c r="L30" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>176700</v>
       </c>
       <c r="M30" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>195750</v>
       </c>
       <c r="N30" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>206700</v>
       </c>
       <c r="O30" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>217950</v>
       </c>
       <c r="P30" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>229200</v>
       </c>
     </row>
@@ -8285,51 +8279,51 @@
         <v>0</v>
       </c>
       <c r="E31" s="2">
-        <f>E5*E12</f>
+        <f t="shared" ref="E31:P31" si="14">E5*E12</f>
         <v>15750</v>
       </c>
       <c r="F31" s="2">
-        <f>F5*F12</f>
+        <f t="shared" si="14"/>
         <v>28710</v>
       </c>
       <c r="G31" s="2">
-        <f>G5*G12</f>
+        <f t="shared" si="14"/>
         <v>46260</v>
       </c>
       <c r="H31" s="2">
-        <f>H5*H12</f>
+        <f t="shared" si="14"/>
         <v>60795</v>
       </c>
       <c r="I31" s="2">
-        <f>I5*I12</f>
+        <f t="shared" si="14"/>
         <v>73170</v>
       </c>
       <c r="J31" s="2">
-        <f>J5*J12</f>
+        <f t="shared" si="14"/>
         <v>92070</v>
       </c>
       <c r="K31" s="2">
-        <f>K5*K12</f>
+        <f t="shared" si="14"/>
         <v>99270</v>
       </c>
       <c r="L31" s="2">
-        <f>L5*L12</f>
+        <f t="shared" si="14"/>
         <v>106020</v>
       </c>
       <c r="M31" s="2">
-        <f>M5*M12</f>
+        <f t="shared" si="14"/>
         <v>117450</v>
       </c>
       <c r="N31" s="2">
-        <f>N5*N12</f>
+        <f t="shared" si="14"/>
         <v>124020</v>
       </c>
       <c r="O31" s="2">
-        <f>O5*O12</f>
+        <f t="shared" si="14"/>
         <v>130770</v>
       </c>
       <c r="P31" s="2">
-        <f>P5*P12</f>
+        <f t="shared" si="14"/>
         <v>137520</v>
       </c>
     </row>
@@ -8348,47 +8342,47 @@
         <v>10500</v>
       </c>
       <c r="F32" s="2">
-        <f t="shared" ref="F32:P32" si="12">F30-F31</f>
+        <f t="shared" ref="F32:P32" si="15">F30-F31</f>
         <v>19140</v>
       </c>
       <c r="G32" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>30840</v>
       </c>
       <c r="H32" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>40530</v>
       </c>
       <c r="I32" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>48780</v>
       </c>
       <c r="J32" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>61380</v>
       </c>
       <c r="K32" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>66180</v>
       </c>
       <c r="L32" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>70680</v>
       </c>
       <c r="M32" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>78300</v>
       </c>
       <c r="N32" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>82680</v>
       </c>
       <c r="O32" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>87180</v>
       </c>
       <c r="P32" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>91680</v>
       </c>
     </row>
@@ -8407,47 +8401,47 @@
         <v>0.4</v>
       </c>
       <c r="F33" s="9">
-        <f t="shared" ref="F33:P33" si="13">F32/F30</f>
+        <f t="shared" ref="F33:P33" si="16">F32/F30</f>
         <v>0.4</v>
       </c>
       <c r="G33" s="9">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0.4</v>
       </c>
       <c r="H33" s="9">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0.4</v>
       </c>
       <c r="I33" s="9">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0.4</v>
       </c>
       <c r="J33" s="9">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0.4</v>
       </c>
       <c r="K33" s="9">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0.4</v>
       </c>
       <c r="L33" s="9">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0.4</v>
       </c>
       <c r="M33" s="9">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0.4</v>
       </c>
       <c r="N33" s="9">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0.4</v>
       </c>
       <c r="O33" s="9">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0.4</v>
       </c>
       <c r="P33" s="9">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0.4</v>
       </c>
     </row>
@@ -8537,51 +8531,51 @@
       </c>
       <c r="D37" s="2"/>
       <c r="E37" s="2">
-        <f t="shared" ref="E37:P37" si="14">E30*E33-E35</f>
+        <f t="shared" ref="E37:P37" si="17">E30*E33-E35</f>
         <v>2500</v>
       </c>
       <c r="F37" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>11140</v>
       </c>
       <c r="G37" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>22840</v>
       </c>
       <c r="H37" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>32530</v>
       </c>
       <c r="I37" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>40780</v>
       </c>
       <c r="J37" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>53380</v>
       </c>
       <c r="K37" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>58180</v>
       </c>
       <c r="L37" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>62680</v>
       </c>
       <c r="M37" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>70300</v>
       </c>
       <c r="N37" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>74680</v>
       </c>
       <c r="O37" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>79180</v>
       </c>
       <c r="P37" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>83680</v>
       </c>
     </row>
@@ -8594,51 +8588,51 @@
       </c>
       <c r="D38" s="2"/>
       <c r="E38" s="9">
-        <f t="shared" ref="E38:P38" si="15">E37/E31</f>
+        <f t="shared" ref="E38:P38" si="18">E37/E31</f>
         <v>0.15873015873015872</v>
       </c>
       <c r="F38" s="9">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0.3880181121560432</v>
       </c>
       <c r="G38" s="9">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0.49373108517077391</v>
       </c>
       <c r="H38" s="9">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0.53507689777119827</v>
       </c>
       <c r="I38" s="9">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0.55733223998906656</v>
       </c>
       <c r="J38" s="9">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0.57977625719561199</v>
       </c>
       <c r="K38" s="9">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0.58607837211645009</v>
       </c>
       <c r="L38" s="9">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0.59120920581022451</v>
       </c>
       <c r="M38" s="9">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0.59855257556406982</v>
       </c>
       <c r="N38" s="9">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0.60216094178358326</v>
       </c>
       <c r="O38" s="9">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0.60549055593790624</v>
       </c>
       <c r="P38" s="9">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0.60849331006399066</v>
       </c>
     </row>
@@ -8687,51 +8681,51 @@
       </c>
       <c r="D41" s="2"/>
       <c r="E41" s="2" t="e">
-        <f t="shared" ref="E41:P41" si="16">E27*E33/E22</f>
+        <f t="shared" ref="E41:P41" si="19">E27*E33/E22</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F41" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>875000</v>
       </c>
       <c r="G41" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>638000</v>
       </c>
       <c r="H41" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1142222.2222222222</v>
       </c>
       <c r="I41" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1095405.4054054054</v>
       </c>
       <c r="J41" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>2439000</v>
       </c>
       <c r="K41" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>876857.14285714296</v>
       </c>
       <c r="L41" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>2206000</v>
       </c>
       <c r="M41" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1262142.8571428573</v>
       </c>
       <c r="N41" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>711818.18181818177</v>
       </c>
       <c r="O41" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>2120000</v>
       </c>
       <c r="P41" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>14529999.999999998</v>
       </c>
     </row>
@@ -8748,47 +8742,47 @@
         <v>#DIV/0!</v>
       </c>
       <c r="F42" s="2">
-        <f t="shared" ref="F42:P42" si="17">1/F13</f>
+        <f t="shared" ref="F42:P42" si="20">1/F13</f>
         <v>29.166666666666664</v>
       </c>
       <c r="G42" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>21.266666666666666</v>
       </c>
       <c r="H42" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>38.074074074074076</v>
       </c>
       <c r="I42" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>36.513513513513516</v>
       </c>
       <c r="J42" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>81.3</v>
       </c>
       <c r="K42" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>29.228571428571431</v>
       </c>
       <c r="L42" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>73.533333333333331</v>
       </c>
       <c r="M42" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>42.071428571428577</v>
       </c>
       <c r="N42" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>23.727272727272727</v>
       </c>
       <c r="O42" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>70.666666666666671</v>
       </c>
       <c r="P42" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>484.33333333333331</v>
       </c>
     </row>
@@ -8805,47 +8799,47 @@
         <v>125714.28571428571</v>
       </c>
       <c r="F43" s="2">
-        <f t="shared" ref="F43:P43" si="18">F47/F9*1000</f>
+        <f t="shared" ref="F43:P43" si="21">F47/F9*1000</f>
         <v>146666.66666666666</v>
       </c>
       <c r="G43" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>104761.90476190476</v>
       </c>
       <c r="H43" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>125714.28571428571</v>
       </c>
       <c r="I43" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>141025.64102564103</v>
       </c>
       <c r="J43" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>100000</v>
       </c>
       <c r="K43" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>191304.34782608697</v>
       </c>
       <c r="L43" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>244444.44444444447</v>
       </c>
       <c r="M43" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>141935.48387096776</v>
       </c>
       <c r="N43" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>171875</v>
       </c>
       <c r="O43" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>232804.2328042328</v>
       </c>
       <c r="P43" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>282051.28205128206</v>
       </c>
     </row>
@@ -8862,47 +8856,47 @@
         <v>#DIV/0!</v>
       </c>
       <c r="F44" s="2">
-        <f t="shared" ref="F44:P44" si="19">F41/F43</f>
+        <f t="shared" ref="F44:P44" si="22">F41/F43</f>
         <v>5.9659090909090917</v>
       </c>
       <c r="G44" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>6.09</v>
       </c>
       <c r="H44" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>9.0858585858585865</v>
       </c>
       <c r="I44" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>7.7674201474201476</v>
       </c>
       <c r="J44" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>24.39</v>
       </c>
       <c r="K44" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>4.5835714285714291</v>
       </c>
       <c r="L44" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>9.0245454545454535</v>
       </c>
       <c r="M44" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>8.8923701298701303</v>
       </c>
       <c r="N44" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>4.1414876033057846</v>
       </c>
       <c r="O44" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>9.1063636363636373</v>
       </c>
       <c r="P44" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>51.515454545454539</v>
       </c>
     </row>
@@ -8921,47 +8915,47 @@
         <v>4.1904761904761907</v>
       </c>
       <c r="F45" s="2">
-        <f t="shared" ref="F45:P45" si="20">F43/(F27*F33)</f>
+        <f t="shared" ref="F45:P45" si="23">F43/(F27*F33)</f>
         <v>4.8888888888888884</v>
       </c>
       <c r="G45" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>3.4920634920634921</v>
       </c>
       <c r="H45" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>4.1904761904761907</v>
       </c>
       <c r="I45" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>4.700854700854701</v>
       </c>
       <c r="J45" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>3.3333333333333335</v>
       </c>
       <c r="K45" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>6.3768115942028993</v>
       </c>
       <c r="L45" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>8.1481481481481488</v>
       </c>
       <c r="M45" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>4.731182795698925</v>
       </c>
       <c r="N45" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>5.729166666666667</v>
       </c>
       <c r="O45" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>7.7601410934744264</v>
       </c>
       <c r="P45" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>9.4017094017094021</v>
       </c>
     </row>
@@ -9035,8 +9029,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:AQ54"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="G37" sqref="G37"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -9080,268 +9074,259 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:43" x14ac:dyDescent="0.35">
-      <c r="E3" s="28" t="s">
-        <v>81</v>
-      </c>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="28"/>
-      <c r="I3" s="28"/>
-      <c r="J3" s="28"/>
-      <c r="K3" s="28"/>
-      <c r="L3" s="28"/>
-      <c r="M3" s="28"/>
-      <c r="N3" s="28"/>
-      <c r="O3" s="28"/>
-      <c r="P3" s="28"/>
-      <c r="Q3" s="28"/>
-      <c r="R3" s="28"/>
-      <c r="S3" s="28"/>
-      <c r="T3" s="28"/>
-      <c r="U3" s="28"/>
-      <c r="V3" s="28"/>
-      <c r="W3" s="28"/>
-      <c r="X3" s="28"/>
-      <c r="Y3" s="28"/>
-      <c r="Z3" s="28"/>
-      <c r="AA3" s="28"/>
-      <c r="AB3" s="28"/>
-      <c r="AC3" s="28"/>
-      <c r="AD3" s="28"/>
-      <c r="AE3" s="28"/>
-      <c r="AF3" s="28"/>
-      <c r="AG3" s="28"/>
-      <c r="AH3" s="28"/>
-      <c r="AI3" s="28"/>
-      <c r="AJ3" s="28"/>
-      <c r="AK3" s="28"/>
-      <c r="AL3" s="28"/>
-      <c r="AM3" s="28"/>
-      <c r="AN3" s="28"/>
-      <c r="AO3" s="28"/>
-      <c r="AP3" s="28"/>
-      <c r="AQ3" s="28"/>
+      <c r="E3" s="35" t="s">
+        <v>133</v>
+      </c>
+      <c r="F3" s="35"/>
+      <c r="G3" s="35"/>
+      <c r="H3" s="35"/>
+      <c r="I3" s="35"/>
+      <c r="J3" s="35"/>
+      <c r="K3" s="35"/>
+      <c r="L3" s="35"/>
+      <c r="M3" s="35"/>
+      <c r="N3" s="35"/>
+      <c r="O3" s="35"/>
+      <c r="P3" s="35"/>
+      <c r="Q3" s="35"/>
+      <c r="R3" s="35"/>
+      <c r="S3" s="35"/>
+      <c r="T3" s="35"/>
+      <c r="U3" s="35"/>
+      <c r="V3" s="35"/>
+      <c r="W3" s="35"/>
+      <c r="X3" s="35"/>
+      <c r="Y3" s="35"/>
+      <c r="Z3" s="35"/>
+      <c r="AA3" s="35"/>
+      <c r="AB3" s="35"/>
+      <c r="AC3" s="35"/>
+      <c r="AD3" s="35"/>
+      <c r="AE3" s="35"/>
+      <c r="AF3" s="35"/>
+      <c r="AG3" s="35"/>
+      <c r="AH3" s="35"/>
+      <c r="AI3" s="35"/>
+      <c r="AJ3" s="35"/>
+      <c r="AK3" s="35"/>
+      <c r="AL3" s="35"/>
+      <c r="AM3" s="35"/>
+      <c r="AN3" s="35"/>
+      <c r="AO3" s="35"/>
+      <c r="AP3" s="35"/>
+      <c r="AQ3" s="35"/>
     </row>
     <row r="4" spans="2:43" x14ac:dyDescent="0.35">
-      <c r="E4" s="28" t="s">
-        <v>83</v>
-      </c>
-      <c r="F4" s="28"/>
-      <c r="G4" s="28"/>
-      <c r="H4" s="28"/>
-      <c r="I4" s="28"/>
-      <c r="J4" s="28"/>
-      <c r="K4" s="28"/>
-      <c r="L4" s="28"/>
-      <c r="M4" s="28"/>
-      <c r="N4" s="28"/>
-      <c r="O4" s="28"/>
-      <c r="P4" s="28"/>
-      <c r="Q4" s="28"/>
-      <c r="R4" s="28"/>
-      <c r="S4" s="28"/>
-      <c r="T4" s="28"/>
-      <c r="U4" s="28"/>
-      <c r="V4" s="28"/>
-      <c r="W4" s="28"/>
-      <c r="X4" s="28"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="35"/>
+      <c r="H4" s="35"/>
+      <c r="I4" s="35"/>
+      <c r="J4" s="35"/>
+      <c r="K4" s="35"/>
+      <c r="L4" s="35"/>
+      <c r="M4" s="35"/>
+      <c r="N4" s="35"/>
+      <c r="O4" s="35"/>
+      <c r="P4" s="35"/>
+      <c r="Q4" s="35"/>
+      <c r="R4" s="35"/>
+      <c r="S4" s="35"/>
+      <c r="T4" s="35"/>
+      <c r="U4" s="35"/>
+      <c r="V4" s="35"/>
+      <c r="W4" s="35"/>
+      <c r="X4" s="35"/>
     </row>
     <row r="5" spans="2:43" ht="116" x14ac:dyDescent="0.35">
       <c r="B5" s="20" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C5" s="20">
         <v>3000</v>
       </c>
-      <c r="E5" s="29" t="s">
-        <v>84</v>
-      </c>
-      <c r="F5" s="29"/>
-      <c r="G5" s="28"/>
-      <c r="H5" s="28"/>
-      <c r="I5" s="28"/>
-      <c r="J5" s="28"/>
-      <c r="K5" s="28"/>
-      <c r="L5" s="28"/>
-      <c r="M5" s="28"/>
-      <c r="N5" s="28"/>
-      <c r="O5" s="28"/>
-      <c r="P5" s="28"/>
-      <c r="Q5" s="28"/>
-      <c r="R5" s="28"/>
-      <c r="S5" s="28"/>
-      <c r="T5" s="28"/>
-      <c r="U5" s="28"/>
-      <c r="V5" s="28"/>
-      <c r="W5" s="28"/>
-      <c r="X5" s="28"/>
+      <c r="E5" s="36"/>
+      <c r="F5" s="36"/>
+      <c r="G5" s="35"/>
+      <c r="H5" s="35"/>
+      <c r="I5" s="35"/>
+      <c r="J5" s="35"/>
+      <c r="K5" s="35"/>
+      <c r="L5" s="35"/>
+      <c r="M5" s="35"/>
+      <c r="N5" s="35"/>
+      <c r="O5" s="35"/>
+      <c r="P5" s="35"/>
+      <c r="Q5" s="35"/>
+      <c r="R5" s="35"/>
+      <c r="S5" s="35"/>
+      <c r="T5" s="35"/>
+      <c r="U5" s="35"/>
+      <c r="V5" s="35"/>
+      <c r="W5" s="35"/>
+      <c r="X5" s="35"/>
     </row>
     <row r="6" spans="2:43" ht="58" x14ac:dyDescent="0.35">
       <c r="B6" s="20" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C6" s="20">
         <v>2</v>
       </c>
-      <c r="E6" s="29" t="s">
+      <c r="E6" s="36" t="s">
+        <v>81</v>
+      </c>
+      <c r="F6" s="36"/>
+      <c r="G6" s="35"/>
+      <c r="H6" s="35"/>
+      <c r="I6" s="35"/>
+      <c r="J6" s="35"/>
+      <c r="K6" s="35"/>
+      <c r="L6" s="35"/>
+      <c r="M6" s="35"/>
+      <c r="N6" s="35"/>
+      <c r="O6" s="35"/>
+      <c r="P6" s="35"/>
+      <c r="Q6" s="35"/>
+      <c r="R6" s="35"/>
+      <c r="S6" s="35"/>
+      <c r="T6" s="35"/>
+      <c r="U6" s="35"/>
+      <c r="V6" s="35"/>
+      <c r="W6" s="35"/>
+      <c r="X6" s="35"/>
+    </row>
+    <row r="7" spans="2:43" x14ac:dyDescent="0.35">
+      <c r="E7" s="36" t="s">
+        <v>85</v>
+      </c>
+      <c r="F7" s="36"/>
+      <c r="G7" s="35"/>
+      <c r="H7" s="35"/>
+      <c r="I7" s="35"/>
+      <c r="J7" s="35"/>
+      <c r="K7" s="35"/>
+      <c r="L7" s="35"/>
+      <c r="M7" s="35"/>
+      <c r="N7" s="35"/>
+      <c r="O7" s="35"/>
+      <c r="P7" s="35"/>
+      <c r="Q7" s="35"/>
+      <c r="R7" s="35"/>
+      <c r="S7" s="35"/>
+      <c r="T7" s="35"/>
+      <c r="U7" s="35"/>
+      <c r="V7" s="35"/>
+      <c r="W7" s="35"/>
+      <c r="X7" s="35"/>
+    </row>
+    <row r="8" spans="2:43" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C8" s="19"/>
+      <c r="E8" s="36"/>
+      <c r="F8" s="36"/>
+      <c r="G8" s="35"/>
+      <c r="H8" s="35"/>
+      <c r="I8" s="35"/>
+      <c r="J8" s="35"/>
+      <c r="K8" s="35"/>
+      <c r="L8" s="35"/>
+      <c r="M8" s="35"/>
+      <c r="N8" s="35"/>
+      <c r="O8" s="35"/>
+      <c r="P8" s="35"/>
+      <c r="Q8" s="35"/>
+      <c r="R8" s="35"/>
+      <c r="S8" s="35"/>
+      <c r="T8" s="35"/>
+      <c r="U8" s="35"/>
+      <c r="V8" s="35"/>
+      <c r="W8" s="35"/>
+      <c r="X8" s="35"/>
+    </row>
+    <row r="11" spans="2:43" x14ac:dyDescent="0.35">
+      <c r="B11" s="35" t="s">
         <v>82</v>
       </c>
-      <c r="F6" s="29"/>
-      <c r="G6" s="28"/>
-      <c r="H6" s="28"/>
-      <c r="I6" s="28"/>
-      <c r="J6" s="28"/>
-      <c r="K6" s="28"/>
-      <c r="L6" s="28"/>
-      <c r="M6" s="28"/>
-      <c r="N6" s="28"/>
-      <c r="O6" s="28"/>
-      <c r="P6" s="28"/>
-      <c r="Q6" s="28"/>
-      <c r="R6" s="28"/>
-      <c r="S6" s="28"/>
-      <c r="T6" s="28"/>
-      <c r="U6" s="28"/>
-      <c r="V6" s="28"/>
-      <c r="W6" s="28"/>
-      <c r="X6" s="28"/>
-    </row>
-    <row r="7" spans="2:43" x14ac:dyDescent="0.35">
-      <c r="E7" s="29" t="s">
-        <v>88</v>
-      </c>
-      <c r="F7" s="29"/>
-      <c r="G7" s="28"/>
-      <c r="H7" s="28"/>
-      <c r="I7" s="28"/>
-      <c r="J7" s="28"/>
-      <c r="K7" s="28"/>
-      <c r="L7" s="28"/>
-      <c r="M7" s="28"/>
-      <c r="N7" s="28"/>
-      <c r="O7" s="28"/>
-      <c r="P7" s="28"/>
-      <c r="Q7" s="28"/>
-      <c r="R7" s="28"/>
-      <c r="S7" s="28"/>
-      <c r="T7" s="28"/>
-      <c r="U7" s="28"/>
-      <c r="V7" s="28"/>
-      <c r="W7" s="28"/>
-      <c r="X7" s="28"/>
-    </row>
-    <row r="8" spans="2:43" ht="27" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="20" t="s">
-        <v>101</v>
-      </c>
-      <c r="C8" s="19">
-        <v>0.4</v>
-      </c>
-      <c r="E8" s="29"/>
-      <c r="F8" s="29"/>
-      <c r="G8" s="28"/>
-      <c r="H8" s="28"/>
-      <c r="I8" s="28"/>
-      <c r="J8" s="28"/>
-      <c r="K8" s="28"/>
-      <c r="L8" s="28"/>
-      <c r="M8" s="28"/>
-      <c r="N8" s="28"/>
-      <c r="O8" s="28"/>
-      <c r="P8" s="28"/>
-      <c r="Q8" s="28"/>
-      <c r="R8" s="28"/>
-      <c r="S8" s="28"/>
-      <c r="T8" s="28"/>
-      <c r="U8" s="28"/>
-      <c r="V8" s="28"/>
-      <c r="W8" s="28"/>
-      <c r="X8" s="28"/>
-    </row>
-    <row r="11" spans="2:43" x14ac:dyDescent="0.35">
-      <c r="B11" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="C11" s="28"/>
-      <c r="D11" s="28"/>
-      <c r="E11" s="28"/>
-      <c r="F11" s="28"/>
-      <c r="G11" s="28"/>
+      <c r="C11" s="35"/>
+      <c r="D11" s="35"/>
+      <c r="E11" s="35"/>
+      <c r="F11" s="35"/>
+      <c r="G11" s="35"/>
     </row>
     <row r="12" spans="2:43" x14ac:dyDescent="0.35">
-      <c r="B12" s="28" t="s">
-        <v>86</v>
-      </c>
-      <c r="C12" s="28"/>
-      <c r="D12" s="28"/>
-      <c r="E12" s="28"/>
-      <c r="F12" s="28"/>
-      <c r="G12" s="28"/>
+      <c r="B12" s="35" t="s">
+        <v>83</v>
+      </c>
+      <c r="C12" s="35"/>
+      <c r="D12" s="35"/>
+      <c r="E12" s="35"/>
+      <c r="F12" s="35"/>
+      <c r="G12" s="35"/>
     </row>
     <row r="13" spans="2:43" x14ac:dyDescent="0.35">
-      <c r="B13" s="28" t="s">
-        <v>87</v>
-      </c>
-      <c r="C13" s="28"/>
-      <c r="D13" s="28"/>
-      <c r="E13" s="28"/>
-      <c r="F13" s="28"/>
-      <c r="G13" s="28"/>
+      <c r="B13" s="35" t="s">
+        <v>84</v>
+      </c>
+      <c r="C13" s="35"/>
+      <c r="D13" s="35"/>
+      <c r="E13" s="35"/>
+      <c r="F13" s="35"/>
+      <c r="G13" s="35"/>
     </row>
     <row r="16" spans="2:43" ht="72.5" x14ac:dyDescent="0.35">
       <c r="B16" s="20" t="s">
         <v>71</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E16" s="15" t="s">
-        <v>76</v>
+        <v>134</v>
       </c>
       <c r="F16" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="G16" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="H16" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="I16" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="J16" s="16" t="s">
         <v>99</v>
       </c>
-      <c r="G16" s="16" t="s">
+      <c r="K16" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="L16" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="M16" s="16" t="s">
         <v>98</v>
-      </c>
-      <c r="H16" s="16" t="s">
-        <v>104</v>
-      </c>
-      <c r="I16" s="16" t="s">
-        <v>107</v>
-      </c>
-      <c r="J16" s="16" t="s">
-        <v>105</v>
-      </c>
-      <c r="K16" s="16" t="s">
-        <v>106</v>
-      </c>
-      <c r="L16" s="16" t="s">
-        <v>102</v>
-      </c>
-      <c r="M16" s="16" t="s">
-        <v>103</v>
       </c>
       <c r="N16" s="25" t="s">
         <v>70</v>
       </c>
       <c r="O16" s="25" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="P16" s="16" t="s">
         <v>78</v>
       </c>
       <c r="Q16" s="2" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="R16" s="2" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="S16" s="2" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
     </row>
     <row r="17" spans="2:19" x14ac:dyDescent="0.35">
@@ -9426,14 +9411,14 @@
         <v>#DIV/0!</v>
       </c>
       <c r="G19" s="16">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H19" s="16">
         <v>540</v>
       </c>
       <c r="I19" s="16">
         <f>(SUMPRODUCT(($G$18:G19),($H$18:H19))/((ROWS($I$18:I19)*SUM($H$18:H19))))</f>
-        <v>26.5</v>
+        <v>26</v>
       </c>
       <c r="J19" s="16" t="e">
         <f>(H19-H18)/H18</f>
@@ -9453,7 +9438,7 @@
       </c>
       <c r="N19" s="25">
         <f>N18+(G19*H19)</f>
-        <v>28620</v>
+        <v>28080</v>
       </c>
       <c r="O19" s="25">
         <f t="shared" ref="O19:O54" si="1">E19*L19</f>
@@ -9461,11 +9446,11 @@
       </c>
       <c r="P19" s="25">
         <f>N19-O19</f>
-        <v>8340</v>
+        <v>7800</v>
       </c>
       <c r="Q19" s="16">
         <f t="shared" ref="Q19:Q54" si="2">G19*H19</f>
-        <v>28620</v>
+        <v>28080</v>
       </c>
       <c r="R19" s="2">
         <f>E19*H19</f>
@@ -9473,7 +9458,7 @@
       </c>
       <c r="S19" s="2">
         <f>Q19-R19</f>
-        <v>8340</v>
+        <v>7800</v>
       </c>
     </row>
     <row r="20" spans="2:19" x14ac:dyDescent="0.35">
@@ -9493,18 +9478,18 @@
       </c>
       <c r="F20" s="17">
         <f>IF((S19 &lt; S18),(F19-(F19*(I19/100))),IF((G19&gt;G18),((G19-$G$18)/(H19-$H$18)),((G19-G18)/(H19-H18))))</f>
-        <v>-1.8518518518518519E-3</v>
+        <v>-3.7037037037037038E-3</v>
       </c>
       <c r="G20" s="16">
         <f>F20*H20 +$G$18</f>
-        <v>52.814814814814817</v>
+        <v>51.629629629629633</v>
       </c>
       <c r="H20" s="16">
         <v>640</v>
       </c>
       <c r="I20" s="16">
         <f>(SUMPRODUCT(($G$18:G20),($H$18:H20))/((ROWS($I$18:I20)*SUM($H$18:H20))))</f>
-        <v>17.633186859175559</v>
+        <v>17.266373718351119</v>
       </c>
       <c r="J20" s="16">
         <f>(H20-H19)/H19</f>
@@ -9524,7 +9509,7 @@
       </c>
       <c r="N20" s="25">
         <f>N19+(G20*H20)</f>
-        <v>62421.481481481482</v>
+        <v>61122.962962962964</v>
       </c>
       <c r="O20" s="25">
         <f t="shared" si="1"/>
@@ -9532,11 +9517,11 @@
       </c>
       <c r="P20" s="25">
         <f t="shared" ref="P20:P54" si="4">N20-O20</f>
-        <v>21661.481481481482</v>
+        <v>20362.962962962964</v>
       </c>
       <c r="Q20" s="16">
         <f t="shared" si="2"/>
-        <v>33801.481481481482</v>
+        <v>33042.962962962964</v>
       </c>
       <c r="R20" s="2">
         <f t="shared" ref="R20:R54" si="5">E20*H20</f>
@@ -9544,7 +9529,7 @@
       </c>
       <c r="S20" s="2">
         <f t="shared" ref="S20:S54" si="6">Q20-R20</f>
-        <v>11694.362837413686</v>
+        <v>10935.844318895168</v>
       </c>
     </row>
     <row r="21" spans="2:19" x14ac:dyDescent="0.35">
@@ -9564,18 +9549,18 @@
       </c>
       <c r="F21" s="17">
         <f t="shared" ref="F21:F54" si="8">IF((S20 &lt; S19),(F20-(F20*(I20/100))),IF((G20&gt;G19),((G20-$G$18)/(H20-$H$18)),((G20-G19)/(H20-H19))))</f>
-        <v>-1.8518518518518335E-3</v>
+        <v>-3.703703703703667E-3</v>
       </c>
       <c r="G21" s="16">
         <f t="shared" ref="G21:G54" si="9">F21*H21 +$G$18</f>
-        <v>52.722222222222236</v>
+        <v>51.444444444444471</v>
       </c>
       <c r="H21" s="16">
         <v>690</v>
       </c>
       <c r="I21" s="16">
         <f>(SUMPRODUCT(($G$18:G21),($H$18:H21))/((ROWS($I$18:I21)*SUM($H$18:H21))))</f>
-        <v>13.208531392354924</v>
+        <v>12.917062784709847</v>
       </c>
       <c r="J21" s="16">
         <f t="shared" ref="J21" si="10">(H21-H20)/H20</f>
@@ -9595,7 +9580,7 @@
       </c>
       <c r="N21" s="25">
         <f t="shared" ref="N21:N54" si="12">N20+(G21*H21)</f>
-        <v>98799.814814814832</v>
+        <v>96619.62962962965</v>
       </c>
       <c r="O21" s="25">
         <f t="shared" si="1"/>
@@ -9603,11 +9588,11 @@
       </c>
       <c r="P21" s="25">
         <f t="shared" si="4"/>
-        <v>35959.814814814825</v>
+        <v>33779.629629629642</v>
       </c>
       <c r="Q21" s="16">
         <f t="shared" si="2"/>
-        <v>36378.333333333343</v>
+        <v>35496.666666666686</v>
       </c>
       <c r="R21" s="2">
         <f t="shared" si="5"/>
@@ -9615,7 +9600,7 @@
       </c>
       <c r="S21" s="2">
         <f t="shared" si="6"/>
-        <v>13191.381461675584</v>
+        <v>12309.714795008927</v>
       </c>
     </row>
     <row r="22" spans="2:19" x14ac:dyDescent="0.35">
@@ -9635,18 +9620,18 @@
       </c>
       <c r="F22" s="17">
         <f t="shared" si="8"/>
-        <v>-1.8518518518516203E-3</v>
+        <v>-3.7037037037032407E-3</v>
       </c>
       <c r="G22" s="16">
         <f t="shared" si="9"/>
-        <v>52.537037037037223</v>
+        <v>51.074074074074439</v>
       </c>
       <c r="H22" s="16">
         <v>790</v>
       </c>
       <c r="I22" s="16">
         <f>(SUMPRODUCT(($G$18:G22),($H$18:H22))/((ROWS($I$18:I22)*SUM($H$18:H22))))</f>
-        <v>10.549178501810093</v>
+        <v>10.298357003620186</v>
       </c>
       <c r="J22" s="16">
         <f t="shared" ref="J22" si="13">(H22-H21)/H21</f>
@@ -9666,7 +9651,7 @@
       </c>
       <c r="N22" s="25">
         <f t="shared" si="12"/>
-        <v>140304.07407407425</v>
+        <v>136968.14814814847</v>
       </c>
       <c r="O22" s="25">
         <f t="shared" si="1"/>
@@ -9674,11 +9659,11 @@
       </c>
       <c r="P22" s="25">
         <f t="shared" si="4"/>
-        <v>52184.074074074248</v>
+        <v>48848.148148148466</v>
       </c>
       <c r="Q22" s="16">
         <f t="shared" si="2"/>
-        <v>41504.259259259408</v>
+        <v>40348.518518518809</v>
       </c>
       <c r="R22" s="2">
         <f t="shared" si="5"/>
@@ -9686,7 +9671,7 @@
       </c>
       <c r="S22" s="2">
         <f t="shared" si="6"/>
-        <v>15333.281815650385</v>
+        <v>14177.541074909786</v>
       </c>
     </row>
     <row r="23" spans="2:19" x14ac:dyDescent="0.35">
@@ -9706,18 +9691,18 @@
       </c>
       <c r="F23" s="17">
         <f t="shared" si="8"/>
-        <v>-1.851851851850128E-3</v>
+        <v>-3.7037037037003272E-3</v>
       </c>
       <c r="G23" s="6">
         <f t="shared" si="9"/>
-        <v>52.203703703705372</v>
+        <v>50.40740740741068</v>
       </c>
       <c r="H23" s="6">
         <v>970</v>
       </c>
       <c r="I23" s="6">
         <f>(SUMPRODUCT(($G$18:G23),($H$18:H23))/((ROWS($I$18:I23)*SUM($H$18:H23))))</f>
-        <v>8.766835016835099</v>
+        <v>8.5336700336701945</v>
       </c>
       <c r="J23" s="6">
         <f t="shared" ref="J23" si="14">(H23-H22)/H22</f>
@@ -9737,7 +9722,7 @@
       </c>
       <c r="N23" s="27">
         <f t="shared" si="12"/>
-        <v>190941.66666666846</v>
+        <v>185863.33333333684</v>
       </c>
       <c r="O23" s="27">
         <f t="shared" si="1"/>
@@ -9745,11 +9730,11 @@
       </c>
       <c r="P23" s="27">
         <f t="shared" si="4"/>
-        <v>71781.666666668476</v>
+        <v>66703.33333333685</v>
       </c>
       <c r="Q23" s="6">
         <f t="shared" si="2"/>
-        <v>50637.592592594214</v>
+        <v>48895.185185188362</v>
       </c>
       <c r="R23" s="6">
         <f t="shared" si="5"/>
@@ -9757,7 +9742,7 @@
       </c>
       <c r="S23" s="6">
         <f t="shared" si="6"/>
-        <v>18795.939700032235</v>
+        <v>17053.532292626383</v>
       </c>
     </row>
     <row r="24" spans="2:19" x14ac:dyDescent="0.35">
@@ -9777,18 +9762,18 @@
       </c>
       <c r="F24" s="17">
         <f t="shared" si="8"/>
-        <v>-1.8518518518436148E-3</v>
+        <v>-3.7037037036875453E-3</v>
       </c>
       <c r="G24" s="6">
         <f t="shared" si="9"/>
-        <v>52.481481481488238</v>
+        <v>50.962962962976214</v>
       </c>
       <c r="H24" s="6">
         <v>820</v>
       </c>
       <c r="I24" s="6">
         <f>(SUMPRODUCT(($G$18:G24),($H$18:H24))/((ROWS($I$18:I24)*SUM($H$18:H24))))</f>
-        <v>7.5112835146545365</v>
+        <v>7.3082813150233488</v>
       </c>
       <c r="J24" s="6">
         <f t="shared" ref="J24" si="15">(H24-H23)/H23</f>
@@ -9808,7 +9793,7 @@
       </c>
       <c r="N24" s="27">
         <f t="shared" si="12"/>
-        <v>233976.48148148882</v>
+        <v>227652.96296297733</v>
       </c>
       <c r="O24" s="27">
         <f t="shared" si="1"/>
@@ -9816,11 +9801,11 @@
       </c>
       <c r="P24" s="27">
         <f t="shared" si="4"/>
-        <v>88576.481481488794</v>
+        <v>82252.962962977297</v>
       </c>
       <c r="Q24" s="6">
         <f t="shared" si="2"/>
-        <v>43034.814814820355</v>
+        <v>41789.629629640498</v>
       </c>
       <c r="R24" s="6">
         <f t="shared" si="5"/>
@@ -9828,7 +9813,7 @@
       </c>
       <c r="S24" s="6">
         <f t="shared" si="6"/>
-        <v>16242.005826056306</v>
+        <v>14996.820640876449</v>
       </c>
     </row>
     <row r="25" spans="2:19" x14ac:dyDescent="0.35">
@@ -9848,18 +9833,18 @@
       </c>
       <c r="F25" s="17">
         <f t="shared" si="8"/>
-        <v>-1.7127540089802607E-3</v>
+        <v>-3.4330266179471206E-3</v>
       </c>
       <c r="G25" s="16">
         <f t="shared" si="9"/>
-        <v>51.859057488774674</v>
+        <v>49.708716727566099</v>
       </c>
       <c r="H25" s="16">
         <v>1250</v>
       </c>
       <c r="I25" s="16">
         <f>(SUMPRODUCT(($G$18:G25),($H$18:H25))/((ROWS($I$18:I25)*SUM($H$18:H25))))</f>
-        <v>6.5526382311942362</v>
+        <v>6.3550188349218191</v>
       </c>
       <c r="J25" s="16">
         <f t="shared" ref="J25" si="16">(H25-H24)/H24</f>
@@ -9879,7 +9864,7 @@
       </c>
       <c r="N25" s="25">
         <f t="shared" si="12"/>
-        <v>298800.30334245716</v>
+        <v>289788.85887243494</v>
       </c>
       <c r="O25" s="25">
         <f t="shared" si="1"/>
@@ -9887,11 +9872,11 @@
       </c>
       <c r="P25" s="25">
         <f t="shared" si="4"/>
-        <v>113400.30334245716</v>
+        <v>104388.85887243494</v>
       </c>
       <c r="Q25" s="16">
         <f t="shared" si="2"/>
-        <v>64823.821860968339</v>
+        <v>62135.89590945762</v>
       </c>
       <c r="R25" s="2">
         <f t="shared" si="5"/>
@@ -9899,7 +9884,7 @@
       </c>
       <c r="S25" s="2">
         <f t="shared" si="6"/>
-        <v>24165.927124126232</v>
+        <v>21478.001172615513</v>
       </c>
     </row>
     <row r="26" spans="2:19" x14ac:dyDescent="0.35">
@@ -9919,18 +9904,18 @@
       </c>
       <c r="F26" s="17">
         <f t="shared" si="8"/>
-        <v>-1.447497657473405E-3</v>
+        <v>-2.9168517102560808E-3</v>
       </c>
       <c r="G26" s="16">
         <f t="shared" si="9"/>
-        <v>51.901128396663566</v>
+        <v>49.770565020128686</v>
       </c>
       <c r="H26" s="16">
         <v>1450</v>
       </c>
       <c r="I26" s="16">
         <f>(SUMPRODUCT(($G$18:G26),($H$18:H26))/((ROWS($I$18:I26)*SUM($H$18:H26))))</f>
-        <v>5.8128506529544568</v>
+        <v>5.6248046332808324</v>
       </c>
       <c r="J26" s="16">
         <f t="shared" ref="J26" si="17">(H26-H25)/H25</f>
@@ -9950,7 +9935,7 @@
       </c>
       <c r="N26" s="25">
         <f t="shared" si="12"/>
-        <v>374056.93951761932</v>
+        <v>361956.17815162154</v>
       </c>
       <c r="O26" s="25">
         <f t="shared" si="1"/>
@@ -9958,11 +9943,11 @@
       </c>
       <c r="P26" s="25">
         <f t="shared" si="4"/>
-        <v>142256.93951761932</v>
+        <v>130156.17815162154</v>
       </c>
       <c r="Q26" s="16">
         <f t="shared" si="2"/>
-        <v>75256.636175162173</v>
+        <v>72167.319279186588</v>
       </c>
       <c r="R26" s="2">
         <f t="shared" si="5"/>
@@ -9970,7 +9955,7 @@
       </c>
       <c r="S26" s="2">
         <f t="shared" si="6"/>
-        <v>28248.244566770562</v>
+        <v>25158.927670794976</v>
       </c>
     </row>
     <row r="27" spans="2:19" x14ac:dyDescent="0.35">
@@ -9990,18 +9975,18 @@
       </c>
       <c r="F27" s="17">
         <f t="shared" si="8"/>
-        <v>-1.4474976574734028E-3</v>
+        <v>-2.9168517102560786E-3</v>
       </c>
       <c r="G27" s="16">
         <f t="shared" si="9"/>
-        <v>52.089303092135111</v>
+        <v>50.149755742461977</v>
       </c>
       <c r="H27" s="16">
         <v>1320</v>
       </c>
       <c r="I27" s="16">
         <f>(SUMPRODUCT(($G$18:G27),($H$18:H27))/((ROWS($I$18:I27)*SUM($H$18:H27))))</f>
-        <v>5.2280380117973744</v>
+        <v>5.0549451680244548</v>
       </c>
       <c r="J27" s="16">
         <f t="shared" ref="J27" si="18">(H27-H26)/H26</f>
@@ -10021,7 +10006,7 @@
       </c>
       <c r="N27" s="25">
         <f t="shared" si="12"/>
-        <v>442814.81959923764</v>
+        <v>428153.85573167133</v>
       </c>
       <c r="O27" s="25">
         <f t="shared" si="1"/>
@@ -10029,11 +10014,11 @@
       </c>
       <c r="P27" s="25">
         <f t="shared" si="4"/>
-        <v>168774.81959923764</v>
+        <v>154113.85573167133</v>
       </c>
       <c r="Q27" s="16">
         <f t="shared" si="2"/>
-        <v>68757.88008161835</v>
+        <v>66197.677580049814</v>
       </c>
       <c r="R27" s="2">
         <f t="shared" si="5"/>
@@ -10041,7 +10026,7 @@
       </c>
       <c r="S27" s="2">
         <f t="shared" si="6"/>
-        <v>26050.347614085877</v>
+        <v>23490.145112517341</v>
       </c>
     </row>
     <row r="28" spans="2:19" x14ac:dyDescent="0.35">
@@ -10061,18 +10046,18 @@
       </c>
       <c r="F28" s="17">
         <f t="shared" si="8"/>
-        <v>-1.3718219297208167E-3</v>
+        <v>-2.7694064556700502E-3</v>
       </c>
       <c r="G28" s="16">
         <f t="shared" si="9"/>
-        <v>51.448411210719279</v>
+        <v>48.848903992453707</v>
       </c>
       <c r="H28" s="16">
         <v>1860</v>
       </c>
       <c r="I28" s="16">
         <f>(SUMPRODUCT(($G$18:G28),($H$18:H28))/((ROWS($I$18:I28)*SUM($H$18:H28))))</f>
-        <v>4.7391433992007004</v>
+        <v>4.56756857482738</v>
       </c>
       <c r="J28" s="16">
         <f t="shared" ref="J28" si="19">(H28-H27)/H27</f>
@@ -10092,7 +10077,7 @@
       </c>
       <c r="N28" s="25">
         <f t="shared" si="12"/>
-        <v>538508.86445117556</v>
+        <v>519012.81715763523</v>
       </c>
       <c r="O28" s="25">
         <f t="shared" si="1"/>
@@ -10100,11 +10085,11 @@
       </c>
       <c r="P28" s="25">
         <f t="shared" si="4"/>
-        <v>204948.86445117556</v>
+        <v>185452.81715763523</v>
       </c>
       <c r="Q28" s="16">
         <f t="shared" si="2"/>
-        <v>95694.044851937855</v>
+        <v>90858.961425963891</v>
       </c>
       <c r="R28" s="2">
         <f t="shared" si="5"/>
@@ -10112,7 +10097,7 @@
       </c>
       <c r="S28" s="2">
         <f t="shared" si="6"/>
-        <v>35633.870602179864</v>
+        <v>30798.7871762059</v>
       </c>
     </row>
     <row r="29" spans="2:19" x14ac:dyDescent="0.35">
@@ -10132,18 +10117,18 @@
       </c>
       <c r="F29" s="17">
         <f t="shared" si="8"/>
-        <v>-1.1868368174367272E-3</v>
+        <v>-2.4089847222375379E-3</v>
       </c>
       <c r="G29" s="16">
         <f t="shared" si="9"/>
-        <v>51.934903937660096</v>
+        <v>49.808366583306686</v>
       </c>
       <c r="H29" s="16">
         <v>1740</v>
       </c>
       <c r="I29" s="16">
         <f>(SUMPRODUCT(($G$18:G29),($H$18:H29))/((ROWS($I$18:I29)*SUM($H$18:H29))))</f>
-        <v>4.3418641073094735</v>
+        <v>4.1817134425061369</v>
       </c>
       <c r="J29" s="16">
         <f t="shared" ref="J29" si="20">(H29-H28)/H28</f>
@@ -10163,7 +10148,7 @@
       </c>
       <c r="N29" s="25">
         <f t="shared" si="12"/>
-        <v>628875.59730270412</v>
+        <v>605679.37501258892</v>
       </c>
       <c r="O29" s="25">
         <f t="shared" si="1"/>
@@ -10171,11 +10156,11 @@
       </c>
       <c r="P29" s="25">
         <f t="shared" si="4"/>
-        <v>239635.59730270412</v>
+        <v>216439.37501258892</v>
       </c>
       <c r="Q29" s="16">
         <f t="shared" si="2"/>
-        <v>90366.732851528563</v>
+        <v>86666.557854953629</v>
       </c>
       <c r="R29" s="2">
         <f t="shared" si="5"/>
@@ -10183,7 +10168,7 @@
       </c>
       <c r="S29" s="2">
         <f t="shared" si="6"/>
-        <v>34254.255635289956</v>
+        <v>30554.080638715022</v>
       </c>
     </row>
     <row r="30" spans="2:19" x14ac:dyDescent="0.35">
@@ -10203,18 +10188,18 @@
       </c>
       <c r="F30" s="17">
         <f t="shared" si="8"/>
-        <v>-1.135305975648108E-3</v>
+        <v>-2.3082478842798115E-3</v>
       </c>
       <c r="G30" s="16">
         <f t="shared" si="9"/>
-        <v>51.979155363346365</v>
+        <v>49.891318765981936</v>
       </c>
       <c r="H30" s="16">
         <v>1780</v>
       </c>
       <c r="I30" s="16">
         <f>(SUMPRODUCT(($G$18:G30),($H$18:H30))/((ROWS($I$18:I30)*SUM($H$18:H30))))</f>
-        <v>4.0066564501497393</v>
+        <v>3.8571836846211425</v>
       </c>
       <c r="J30" s="16">
         <f t="shared" ref="J30" si="21">(H30-H29)/H29</f>
@@ -10234,7 +10219,7 @@
       </c>
       <c r="N30" s="25">
         <f t="shared" si="12"/>
-        <v>721398.49384946062</v>
+        <v>694485.92241603672</v>
       </c>
       <c r="O30" s="25">
         <f t="shared" si="1"/>
@@ -10242,11 +10227,11 @@
       </c>
       <c r="P30" s="25">
         <f t="shared" si="4"/>
-        <v>275198.49384946056</v>
+        <v>248285.92241603666</v>
       </c>
       <c r="Q30" s="16">
         <f t="shared" si="2"/>
-        <v>92522.896546756529</v>
+        <v>88806.547403447839</v>
       </c>
       <c r="R30" s="2">
         <f t="shared" si="5"/>
@@ -10254,7 +10239,7 @@
       </c>
       <c r="S30" s="2">
         <f t="shared" si="6"/>
-        <v>35177.336979969521</v>
+        <v>31460.987836660832</v>
       </c>
     </row>
     <row r="31" spans="2:19" x14ac:dyDescent="0.35">
@@ -10274,18 +10259,18 @@
       </c>
       <c r="F31" s="17">
         <f t="shared" si="8"/>
-        <v>-1.1353059756481095E-3</v>
+        <v>-2.3082478842798115E-3</v>
       </c>
       <c r="G31" s="16">
         <f t="shared" si="9"/>
-        <v>51.468267674304713</v>
+        <v>48.852607218056022</v>
       </c>
       <c r="H31" s="16">
         <v>2230</v>
       </c>
       <c r="I31" s="16">
         <f>(SUMPRODUCT(($G$18:G31),($H$18:H31))/((ROWS($I$18:I31)*SUM($H$18:H31))))</f>
-        <v>3.7143422652947766</v>
+        <v>3.56888431286559</v>
       </c>
       <c r="J31" s="16">
         <f t="shared" ref="J31" si="22">(H31-H30)/H30</f>
@@ -10305,7 +10290,7 @@
       </c>
       <c r="N31" s="25">
         <f t="shared" si="12"/>
-        <v>836172.73076316016</v>
+        <v>803427.23651230161</v>
       </c>
       <c r="O31" s="25">
         <f t="shared" si="1"/>
@@ -10313,11 +10298,11 @@
       </c>
       <c r="P31" s="25">
         <f t="shared" si="4"/>
-        <v>318612.7307631601</v>
+        <v>285867.23651230155</v>
       </c>
       <c r="Q31" s="16">
         <f t="shared" si="2"/>
-        <v>114774.23691369951</v>
+        <v>108941.31409626493</v>
       </c>
       <c r="R31" s="2">
         <f t="shared" si="5"/>
@@ -10325,7 +10310,7 @@
       </c>
       <c r="S31" s="2">
         <f t="shared" si="6"/>
-        <v>42998.192137580103</v>
+        <v>37165.269320145526</v>
       </c>
     </row>
     <row r="32" spans="2:19" x14ac:dyDescent="0.35">
@@ -10345,18 +10330,18 @@
       </c>
       <c r="F32" s="17">
         <f t="shared" si="8"/>
-        <v>-1.1353059756481166E-3</v>
+        <v>-2.308247884279808E-3</v>
       </c>
       <c r="G32" s="16">
         <f t="shared" si="9"/>
-        <v>51.241206479175077</v>
+        <v>48.390957641200067</v>
       </c>
       <c r="H32" s="16">
         <v>2430</v>
       </c>
       <c r="I32" s="16">
         <f>(SUMPRODUCT(($G$18:G32),($H$18:H32))/((ROWS($I$18:I32)*SUM($H$18:H32))))</f>
-        <v>3.4600715379346503</v>
+        <v>3.3171880553949853</v>
       </c>
       <c r="J32" s="16">
         <f t="shared" ref="J32" si="23">(H32-H31)/H31</f>
@@ -10376,7 +10361,7 @@
       </c>
       <c r="N32" s="25">
         <f t="shared" si="12"/>
-        <v>960688.86250755563</v>
+        <v>921017.26358041773</v>
       </c>
       <c r="O32" s="25">
         <f t="shared" si="1"/>
@@ -10384,11 +10369,11 @@
       </c>
       <c r="P32" s="25">
         <f t="shared" si="4"/>
-        <v>365368.86250755563</v>
+        <v>325697.26358041773</v>
       </c>
       <c r="Q32" s="16">
         <f t="shared" si="2"/>
-        <v>124516.13174439543</v>
+        <v>117590.02706811616</v>
       </c>
       <c r="R32" s="2">
         <f t="shared" si="5"/>
@@ -10396,7 +10381,7 @@
       </c>
       <c r="S32" s="2">
         <f t="shared" si="6"/>
-        <v>46362.29057745864</v>
+        <v>39436.185901179371</v>
       </c>
     </row>
     <row r="33" spans="2:19" x14ac:dyDescent="0.35">
@@ -10416,18 +10401,18 @@
       </c>
       <c r="F33" s="17">
         <f t="shared" si="8"/>
-        <v>-1.1353059756481797E-3</v>
+        <v>-2.3082478842797725E-3</v>
       </c>
       <c r="G33" s="16">
         <f t="shared" si="9"/>
-        <v>50.866555507211025</v>
+        <v>47.629235839387832</v>
       </c>
       <c r="H33" s="16">
         <v>2760</v>
       </c>
       <c r="I33" s="16">
         <f>(SUMPRODUCT(($G$18:G33),($H$18:H33))/((ROWS($I$18:I33)*SUM($H$18:H33))))</f>
-        <v>3.2354271147962446</v>
+        <v>3.0926009476290792</v>
       </c>
       <c r="J33" s="16">
         <f t="shared" ref="J33" si="24">(H33-H32)/H32</f>
@@ -10447,7 +10432,7 @@
       </c>
       <c r="N33" s="25">
         <f t="shared" si="12"/>
-        <v>1101080.5557074579</v>
+        <v>1052473.9544971283</v>
       </c>
       <c r="O33" s="25">
         <f t="shared" si="1"/>
@@ -10455,11 +10440,11 @@
       </c>
       <c r="P33" s="25">
         <f t="shared" si="4"/>
-        <v>417440.55570745794</v>
+        <v>368833.95449712826</v>
       </c>
       <c r="Q33" s="16">
         <f t="shared" si="2"/>
-        <v>140391.69319990242</v>
+        <v>131456.69091671042</v>
       </c>
       <c r="R33" s="2">
         <f t="shared" si="5"/>
@@ -10467,7 +10452,7 @@
       </c>
       <c r="S33" s="2">
         <f t="shared" si="6"/>
-        <v>51682.41252289254</v>
+        <v>42747.410239700534</v>
       </c>
     </row>
     <row r="34" spans="2:19" x14ac:dyDescent="0.35">
@@ -10487,18 +10472,18 @@
       </c>
       <c r="F34" s="17">
         <f t="shared" si="8"/>
-        <v>-1.1353059756486405E-3</v>
+        <v>-2.3082478842795023E-3</v>
       </c>
       <c r="G34" s="16">
         <f t="shared" si="9"/>
-        <v>50.457845355976239</v>
+        <v>46.798266601047956</v>
       </c>
       <c r="H34" s="16">
         <v>3120</v>
       </c>
       <c r="I34" s="16">
         <f>(SUMPRODUCT(($G$18:G34),($H$18:H34))/((ROWS($I$18:I34)*SUM($H$18:H34))))</f>
-        <v>3.0352580209297542</v>
+        <v>2.8904916342097722</v>
       </c>
       <c r="J34" s="16">
         <f t="shared" ref="J34" si="25">(H34-H33)/H33</f>
@@ -10518,7 +10503,7 @@
       </c>
       <c r="N34" s="25">
         <f t="shared" si="12"/>
-        <v>1258509.0332181039</v>
+        <v>1198484.5462923979</v>
       </c>
       <c r="O34" s="25">
         <f t="shared" si="1"/>
@@ -10526,11 +10511,11 @@
       </c>
       <c r="P34" s="25">
         <f t="shared" si="4"/>
-        <v>475029.03321810393</v>
+        <v>415004.54629239789</v>
       </c>
       <c r="Q34" s="16">
         <f t="shared" si="2"/>
-        <v>157428.47751064587</v>
+        <v>146010.59179526963</v>
       </c>
       <c r="R34" s="2">
         <f t="shared" si="5"/>
@@ -10538,7 +10523,7 @@
       </c>
       <c r="S34" s="2">
         <f t="shared" si="6"/>
-        <v>57204.7136730075</v>
+        <v>45786.827957631263</v>
       </c>
     </row>
     <row r="35" spans="2:19" x14ac:dyDescent="0.35">
@@ -10558,18 +10543,18 @@
       </c>
       <c r="F35" s="17">
         <f>IF((S34 &lt; S33),(F34-(F34*(I34/100))),IF((G34&gt;G33),((G34-$G$18)/(H34-$H$18)),((G34-G33)/(H34-H33))))</f>
-        <v>-1.1353059756521826E-3</v>
+        <v>-2.3082478842774319E-3</v>
       </c>
       <c r="G35" s="16">
         <f t="shared" si="9"/>
-        <v>50.673553491339106</v>
+        <v>47.236833699067127</v>
       </c>
       <c r="H35" s="16">
         <v>2930</v>
       </c>
       <c r="I35" s="16">
         <f>(SUMPRODUCT(($G$18:G35),($H$18:H35))/((ROWS($I$18:I35)*SUM($H$18:H35))))</f>
-        <v>2.8611162862935733</v>
+        <v>2.7185791219917532</v>
       </c>
       <c r="J35" s="16">
         <f t="shared" ref="J35" si="26">(H35-H34)/H34</f>
@@ -10589,7 +10574,7 @@
       </c>
       <c r="N35" s="25">
         <f t="shared" si="12"/>
-        <v>1406982.5449477276</v>
+        <v>1336888.4690306645</v>
       </c>
       <c r="O35" s="25">
         <f t="shared" si="1"/>
@@ -10597,11 +10582,11 @@
       </c>
       <c r="P35" s="25">
         <f t="shared" si="4"/>
-        <v>529742.54494772758</v>
+        <v>459648.46903066454</v>
       </c>
       <c r="Q35" s="16">
         <f t="shared" si="2"/>
-        <v>148473.51172962357</v>
+        <v>138403.92273826667</v>
       </c>
       <c r="R35" s="2">
         <f t="shared" si="5"/>
@@ -10609,7 +10594,7 @@
       </c>
       <c r="S35" s="2">
         <f t="shared" si="6"/>
-        <v>54391.769416299998</v>
+        <v>44322.180424943101</v>
       </c>
     </row>
     <row r="36" spans="2:19" x14ac:dyDescent="0.35">
@@ -10629,18 +10614,18 @@
       </c>
       <c r="F36" s="17">
         <f t="shared" si="8"/>
-        <v>-1.1028235514835339E-3</v>
+        <v>-2.2454963392116493E-3</v>
       </c>
       <c r="G36" s="16">
         <f t="shared" si="9"/>
-        <v>50.195258747381807</v>
+        <v>46.253037629719813</v>
       </c>
       <c r="H36" s="16">
         <v>3450</v>
       </c>
       <c r="I36" s="16">
         <f>(SUMPRODUCT(($G$18:G36),($H$18:H36))/((ROWS($I$18:I36)*SUM($H$18:H36))))</f>
-        <v>2.7028311712128952</v>
+        <v>2.5596726970104133</v>
       </c>
       <c r="J36" s="16">
         <f t="shared" ref="J36" si="27">(H36-H35)/H35</f>
@@ -10660,7 +10645,7 @@
       </c>
       <c r="N36" s="25">
         <f t="shared" si="12"/>
-        <v>1580156.1876261949</v>
+        <v>1496461.448853198</v>
       </c>
       <c r="O36" s="25">
         <f t="shared" si="1"/>
@@ -10668,11 +10653,11 @@
       </c>
       <c r="P36" s="25">
         <f t="shared" si="4"/>
-        <v>592516.18762619502</v>
+        <v>508821.44885319809</v>
       </c>
       <c r="Q36" s="16">
         <f t="shared" si="2"/>
-        <v>173173.64267846724</v>
+        <v>159572.97982253335</v>
       </c>
       <c r="R36" s="2">
         <f t="shared" si="5"/>
@@ -10680,7 +10665,7 @@
       </c>
       <c r="S36" s="2">
         <f t="shared" si="6"/>
-        <v>62437.276087632024</v>
+        <v>48836.613231698138</v>
       </c>
     </row>
     <row r="37" spans="2:19" x14ac:dyDescent="0.35">
@@ -10700,18 +10685,18 @@
       </c>
       <c r="F37" s="17">
         <f t="shared" si="8"/>
-        <v>-9.197975845332679E-4</v>
+        <v>-1.891915517975603E-3</v>
       </c>
       <c r="G37" s="16">
         <f t="shared" si="9"/>
-        <v>50.541561082154914</v>
+        <v>46.886397652411731</v>
       </c>
       <c r="H37" s="16">
         <v>3760</v>
       </c>
       <c r="I37" s="16">
         <f>(SUMPRODUCT(($G$18:G37),($H$18:H37))/((ROWS($I$18:I37)*SUM($H$18:H37))))</f>
-        <v>2.5632673867580329</v>
+        <v>2.4221753605940721</v>
       </c>
       <c r="J37" s="16">
         <f t="shared" ref="J37" si="28">(H37-H36)/H36</f>
@@ -10731,7 +10716,7 @@
       </c>
       <c r="N37" s="25">
         <f t="shared" si="12"/>
-        <v>1770192.4572950974</v>
+        <v>1672754.3040262661</v>
       </c>
       <c r="O37" s="25">
         <f t="shared" si="1"/>
@@ -10739,11 +10724,11 @@
       </c>
       <c r="P37" s="25">
         <f t="shared" si="4"/>
-        <v>662232.45729509741</v>
+        <v>564794.30402626609</v>
       </c>
       <c r="Q37" s="16">
         <f t="shared" si="2"/>
-        <v>190036.26966890247</v>
+        <v>176292.85517306812</v>
       </c>
       <c r="R37" s="2">
         <f t="shared" si="5"/>
@@ -10751,7 +10736,7 @@
       </c>
       <c r="S37" s="2">
         <f t="shared" si="6"/>
-        <v>69389.597210170934</v>
+        <v>55646.182714336581</v>
       </c>
     </row>
     <row r="38" spans="2:19" x14ac:dyDescent="0.35">
@@ -10771,18 +10756,18 @@
       </c>
       <c r="F38" s="17">
         <f t="shared" si="8"/>
-        <v>-9.1979758453326758E-4</v>
+        <v>-1.8919155179756037E-3</v>
       </c>
       <c r="G38" s="16">
         <f t="shared" si="9"/>
-        <v>50.725520599061568</v>
+        <v>47.26478075600685</v>
       </c>
       <c r="H38" s="16">
         <v>3560</v>
       </c>
       <c r="I38" s="16">
         <f>(SUMPRODUCT(($G$18:G38),($H$18:H38))/((ROWS($I$18:I38)*SUM($H$18:H38))))</f>
-        <v>2.4388044738998569</v>
+        <v>2.3015876226951835</v>
       </c>
       <c r="J38" s="16">
         <f t="shared" ref="J38" si="29">(H38-H37)/H37</f>
@@ -10802,7 +10787,7 @@
       </c>
       <c r="N38" s="25">
         <f t="shared" si="12"/>
-        <v>1950775.3106277566</v>
+        <v>1841016.9235176505</v>
       </c>
       <c r="O38" s="25">
         <f t="shared" si="1"/>
@@ -10810,11 +10795,11 @@
       </c>
       <c r="P38" s="25">
         <f t="shared" si="4"/>
-        <v>728895.31062775664</v>
+        <v>619136.92351765046</v>
       </c>
       <c r="Q38" s="16">
         <f t="shared" si="2"/>
-        <v>180582.85333265917</v>
+        <v>168262.61949138439</v>
       </c>
       <c r="R38" s="2">
         <f t="shared" si="5"/>
@@ -10822,7 +10807,7 @@
       </c>
       <c r="S38" s="2">
         <f t="shared" si="6"/>
-        <v>66382.46477923308</v>
+        <v>54062.230937958302</v>
       </c>
     </row>
     <row r="39" spans="2:19" x14ac:dyDescent="0.35">
@@ -10842,18 +10827,18 @@
       </c>
       <c r="F39" s="17">
         <f t="shared" si="8"/>
-        <v>-8.973655198908474E-4</v>
+        <v>-1.8483714245820277E-3</v>
       </c>
       <c r="G39" s="16">
         <f t="shared" si="9"/>
-        <v>50.464379851630063</v>
+        <v>46.717416587146815</v>
       </c>
       <c r="H39" s="16">
         <v>3940</v>
       </c>
       <c r="I39" s="16">
         <f>(SUMPRODUCT(($G$18:G39),($H$18:H39))/((ROWS($I$18:I39)*SUM($H$18:H39))))</f>
-        <v>2.3247517652360643</v>
+        <v>2.1900845120055035</v>
       </c>
       <c r="J39" s="16">
         <f t="shared" ref="J39" si="30">(H39-H38)/H38</f>
@@ -10873,7 +10858,7 @@
       </c>
       <c r="N39" s="25">
         <f t="shared" si="12"/>
-        <v>2149604.9672431792</v>
+        <v>2025083.544871009</v>
       </c>
       <c r="O39" s="25">
         <f t="shared" si="1"/>
@@ -10881,11 +10866,11 @@
       </c>
       <c r="P39" s="25">
         <f t="shared" si="4"/>
-        <v>801644.96724317921</v>
+        <v>677123.54487100895</v>
       </c>
       <c r="Q39" s="16">
         <f t="shared" si="2"/>
-        <v>198829.65661542246</v>
+        <v>184066.62135335844</v>
       </c>
       <c r="R39" s="2">
         <f t="shared" si="5"/>
@@ -10893,7 +10878,7 @@
       </c>
       <c r="S39" s="2">
         <f t="shared" si="6"/>
-        <v>72468.428920918523</v>
+        <v>57705.393658854504</v>
       </c>
     </row>
     <row r="40" spans="2:19" x14ac:dyDescent="0.35">
@@ -10913,18 +10898,18 @@
       </c>
       <c r="F40" s="17">
         <f t="shared" si="8"/>
-        <v>-6.8721249324080105E-4</v>
+        <v>-1.4404320233158822E-3</v>
       </c>
       <c r="G40" s="16">
         <f t="shared" si="9"/>
-        <v>51.065602653861781</v>
+        <v>47.849355260441186</v>
       </c>
       <c r="H40" s="16">
         <v>4270</v>
       </c>
       <c r="I40" s="16">
         <f>(SUMPRODUCT(($G$18:G40),($H$18:H40))/((ROWS($I$18:I40)*SUM($H$18:H40))))</f>
-        <v>2.2233590859002432</v>
+        <v>2.0935301829590505</v>
       </c>
       <c r="J40" s="16">
         <f t="shared" ref="J40" si="31">(H40-H39)/H39</f>
@@ -10944,7 +10929,7 @@
       </c>
       <c r="N40" s="25">
         <f t="shared" si="12"/>
-        <v>2367655.0905751688</v>
+        <v>2229400.2918330929</v>
       </c>
       <c r="O40" s="25">
         <f t="shared" si="1"/>
@@ -10952,11 +10937,11 @@
       </c>
       <c r="P40" s="25">
         <f t="shared" si="4"/>
-        <v>883055.09057516861</v>
+        <v>744800.29183309269</v>
       </c>
       <c r="Q40" s="16">
         <f t="shared" si="2"/>
-        <v>218050.1233319898</v>
+        <v>204316.74696208385</v>
       </c>
       <c r="R40" s="2">
         <f t="shared" si="5"/>
@@ -10964,7 +10949,7 @@
       </c>
       <c r="S40" s="2">
         <f t="shared" si="6"/>
-        <v>81133.449465899088</v>
+        <v>67400.073095993139</v>
       </c>
     </row>
     <row r="41" spans="2:19" x14ac:dyDescent="0.35">
@@ -10984,18 +10969,18 @@
       </c>
       <c r="F41" s="17">
         <f t="shared" si="8"/>
-        <v>-6.8721249324080072E-4</v>
+        <v>-1.4404320233158815E-3</v>
       </c>
       <c r="G41" s="16">
         <f t="shared" si="9"/>
-        <v>51.264894276901614</v>
+        <v>48.267080547202795</v>
       </c>
       <c r="H41" s="16">
         <v>3980</v>
       </c>
       <c r="I41" s="16">
         <f>(SUMPRODUCT(($G$18:G41),($H$18:H41))/((ROWS($I$18:I41)*SUM($H$18:H41))))</f>
-        <v>2.1311400903252098</v>
+        <v>2.0066819746179396</v>
       </c>
       <c r="J41" s="16">
         <f t="shared" ref="J41" si="32">(H41-H40)/H40</f>
@@ -11015,7 +11000,7 @@
       </c>
       <c r="N41" s="25">
         <f t="shared" si="12"/>
-        <v>2571689.3697972372</v>
+        <v>2421503.2724109599</v>
       </c>
       <c r="O41" s="25">
         <f t="shared" si="1"/>
@@ -11023,11 +11008,11 @@
       </c>
       <c r="P41" s="25">
         <f t="shared" si="4"/>
-        <v>959729.36979723698</v>
+        <v>809543.2724109597</v>
       </c>
       <c r="Q41" s="16">
         <f t="shared" si="2"/>
-        <v>204034.27922206844</v>
+        <v>192102.98057786713</v>
       </c>
       <c r="R41" s="2">
         <f t="shared" si="5"/>
@@ -11035,7 +11020,7 @@
       </c>
       <c r="S41" s="2">
         <f t="shared" si="6"/>
-        <v>76436.809055003978</v>
+        <v>64505.510410802672</v>
       </c>
     </row>
     <row r="42" spans="2:19" x14ac:dyDescent="0.35">
@@ -11055,18 +11040,18 @@
       </c>
       <c r="F42" s="17">
         <f t="shared" si="8"/>
-        <v>-6.7256703229162261E-4</v>
+        <v>-1.4115271335473772E-3</v>
       </c>
       <c r="G42" s="6">
         <f t="shared" si="9"/>
-        <v>51.094510420500193</v>
+        <v>47.902202783075332</v>
       </c>
       <c r="H42" s="6">
         <v>4320</v>
       </c>
       <c r="I42" s="16">
         <f>(SUMPRODUCT(($G$18:G42),($H$18:H42))/((ROWS($I$18:I42)*SUM($H$18:H42))))</f>
-        <v>2.0457272196438083</v>
+        <v>1.9255976472042822</v>
       </c>
       <c r="J42" s="16">
         <f t="shared" ref="J42" si="33">(H42-H41)/H41</f>
@@ -11086,7 +11071,7 @@
       </c>
       <c r="N42" s="25">
         <f t="shared" si="12"/>
-        <v>2792417.6548137981</v>
+        <v>2628440.7884338452</v>
       </c>
       <c r="O42" s="25">
         <f t="shared" si="1"/>
@@ -11094,11 +11079,11 @@
       </c>
       <c r="P42" s="25">
         <f t="shared" si="4"/>
-        <v>1042217.6548137984</v>
+        <v>878240.78843384539</v>
       </c>
       <c r="Q42" s="16">
         <f t="shared" si="2"/>
-        <v>220728.28501656084</v>
+        <v>206937.51602288542</v>
       </c>
       <c r="R42" s="2">
         <f t="shared" si="5"/>
@@ -11106,7 +11091,7 @@
       </c>
       <c r="S42" s="6">
         <f t="shared" si="6"/>
-        <v>82250.922379198222</v>
+        <v>68460.153385522804</v>
       </c>
     </row>
     <row r="43" spans="2:19" x14ac:dyDescent="0.35">
@@ -11126,18 +11111,18 @@
       </c>
       <c r="F43" s="17">
         <f t="shared" si="8"/>
-        <v>-5.0112898941594695E-4</v>
+        <v>-1.0731698944925394E-3</v>
       </c>
       <c r="G43" s="6">
         <f t="shared" si="9"/>
-        <v>51.444242153978671</v>
+        <v>48.526833538088049</v>
       </c>
       <c r="H43" s="6">
         <v>5100</v>
       </c>
       <c r="I43" s="16">
         <f>(SUMPRODUCT(($G$18:G43),($H$18:H43))/((ROWS($I$18:I43)*SUM($H$18:H43))))</f>
-        <v>1.9680345894853044</v>
+        <v>1.8528073956178936</v>
       </c>
       <c r="J43" s="16">
         <f t="shared" ref="J43" si="34">(H43-H42)/H42</f>
@@ -11157,7 +11142,7 @@
       </c>
       <c r="N43" s="25">
         <f t="shared" si="12"/>
-        <v>3054783.2897990895</v>
+        <v>2875927.6394780944</v>
       </c>
       <c r="O43" s="25">
         <f t="shared" si="1"/>
@@ -11165,11 +11150,11 @@
       </c>
       <c r="P43" s="25">
         <f t="shared" si="4"/>
-        <v>1141383.2897990895</v>
+        <v>962527.63947809441</v>
       </c>
       <c r="Q43" s="16">
         <f t="shared" si="2"/>
-        <v>262365.63498529122</v>
+        <v>247486.85104424905</v>
       </c>
       <c r="R43" s="2">
         <f t="shared" si="5"/>
@@ -11177,7 +11162,7 @@
       </c>
       <c r="S43" s="6">
         <f t="shared" si="6"/>
-        <v>98909.353578256065</v>
+        <v>84030.569637213892</v>
       </c>
     </row>
     <row r="44" spans="2:19" x14ac:dyDescent="0.35">
@@ -11197,18 +11182,18 @@
       </c>
       <c r="F44" s="17">
         <f t="shared" si="8"/>
-        <v>-5.0112898941594695E-4</v>
+        <v>-1.0731698944925394E-3</v>
       </c>
       <c r="G44" s="6">
         <f t="shared" si="9"/>
-        <v>51.158598630011582</v>
+        <v>47.915126698227304</v>
       </c>
       <c r="H44" s="6">
         <v>5670</v>
       </c>
       <c r="I44" s="16">
         <f>(SUMPRODUCT(($G$18:G44),($H$18:H44))/((ROWS($I$18:I44)*SUM($H$18:H44))))</f>
-        <v>1.8951113286937917</v>
+        <v>1.7833565107207652</v>
       </c>
       <c r="J44" s="16">
         <f t="shared" ref="J44" si="35">(H44-H43)/H43</f>
@@ -11228,7 +11213,7 @@
       </c>
       <c r="N44" s="25">
         <f t="shared" si="12"/>
-        <v>3344852.5440312554</v>
+        <v>3147606.4078570432</v>
       </c>
       <c r="O44" s="25">
         <f t="shared" si="1"/>
@@ -11236,11 +11221,11 @@
       </c>
       <c r="P44" s="25">
         <f t="shared" si="4"/>
-        <v>1250012.5440312554</v>
+        <v>1052766.4078570432</v>
       </c>
       <c r="Q44" s="16">
         <f t="shared" si="2"/>
-        <v>290069.25423216569</v>
+        <v>271678.76837894879</v>
       </c>
       <c r="R44" s="2">
         <f t="shared" si="5"/>
@@ -11248,7 +11233,7 @@
       </c>
       <c r="S44" s="6">
         <f t="shared" si="6"/>
-        <v>108369.04312615376</v>
+        <v>89978.557272936858</v>
       </c>
     </row>
     <row r="45" spans="2:19" x14ac:dyDescent="0.35">
@@ -11268,18 +11253,18 @@
       </c>
       <c r="F45" s="17">
         <f t="shared" si="8"/>
-        <v>-5.0112898941594511E-4</v>
+        <v>-1.073169894492534E-3</v>
       </c>
       <c r="G45" s="6">
         <f t="shared" si="9"/>
-        <v>51.278869587471419</v>
+        <v>48.172687472905537</v>
       </c>
       <c r="H45" s="6">
         <v>5430</v>
       </c>
       <c r="I45" s="16">
         <f>(SUMPRODUCT(($G$18:G45),($H$18:H45))/((ROWS($I$18:I45)*SUM($H$18:H45))))</f>
-        <v>1.8277324484923452</v>
+        <v>1.7197256360143867</v>
       </c>
       <c r="J45" s="16">
         <f t="shared" ref="J45" si="36">(H45-H44)/H44</f>
@@ -11299,7 +11284,7 @@
       </c>
       <c r="N45" s="25">
         <f t="shared" si="12"/>
-        <v>3623296.8058912251</v>
+        <v>3409184.1008349201</v>
       </c>
       <c r="O45" s="25">
         <f t="shared" si="1"/>
@@ -11307,11 +11292,11 @@
       </c>
       <c r="P45" s="25">
         <f t="shared" si="4"/>
-        <v>1354696.8058912251</v>
+        <v>1140584.1008349201</v>
       </c>
       <c r="Q45" s="16">
         <f t="shared" si="2"/>
-        <v>278444.26185996982</v>
+        <v>261577.69297787707</v>
       </c>
       <c r="R45" s="2">
         <f t="shared" si="5"/>
@@ -11319,7 +11304,7 @@
       </c>
       <c r="S45" s="6">
         <f t="shared" si="6"/>
-        <v>104454.17711420712</v>
+        <v>87587.608232114377</v>
       </c>
     </row>
     <row r="46" spans="2:19" x14ac:dyDescent="0.35">
@@ -11339,18 +11324,18 @@
       </c>
       <c r="F46" s="17">
         <f t="shared" si="8"/>
-        <v>-4.9196969226758807E-4</v>
+        <v>-1.0547143166989574E-3</v>
       </c>
       <c r="G46" s="16">
         <f t="shared" si="9"/>
-        <v>51.151495481770667</v>
+        <v>47.893204106313036</v>
       </c>
       <c r="H46" s="16">
         <v>5790</v>
       </c>
       <c r="I46" s="16">
         <f>(SUMPRODUCT(($G$18:G46),($H$18:H46))/((ROWS($I$18:I46)*SUM($H$18:H46))))</f>
-        <v>1.7646419874435202</v>
+        <v>1.6597492931959572</v>
       </c>
       <c r="J46" s="16">
         <f t="shared" ref="J46" si="37">(H46-H45)/H45</f>
@@ -11370,7 +11355,7 @@
       </c>
       <c r="N46" s="25">
         <f t="shared" si="12"/>
-        <v>3919463.9647306772</v>
+        <v>3686485.7526104725</v>
       </c>
       <c r="O46" s="25">
         <f t="shared" si="1"/>
@@ -11378,11 +11363,11 @@
       </c>
       <c r="P46" s="25">
         <f t="shared" si="4"/>
-        <v>1465583.9647306772</v>
+        <v>1232605.7526104725</v>
       </c>
       <c r="Q46" s="16">
         <f t="shared" si="2"/>
-        <v>296167.15883945214</v>
+        <v>277301.65177555248</v>
       </c>
       <c r="R46" s="2">
         <f t="shared" si="5"/>
@@ -11390,7 +11375,7 @@
       </c>
       <c r="S46" s="2">
         <f t="shared" si="6"/>
-        <v>110660.36683005141</v>
+        <v>91794.859766151756</v>
       </c>
     </row>
     <row r="47" spans="2:19" x14ac:dyDescent="0.35">
@@ -11410,18 +11395,18 @@
       </c>
       <c r="F47" s="17">
         <f t="shared" si="8"/>
-        <v>-3.538169602798686E-4</v>
+        <v>-7.7634268497916992E-4</v>
       </c>
       <c r="G47" s="16">
         <f t="shared" si="9"/>
-        <v>51.749724132620038</v>
+        <v>49.062460523532479</v>
       </c>
       <c r="H47" s="16">
         <v>6360</v>
       </c>
       <c r="I47" s="16">
         <f>(SUMPRODUCT(($G$18:G47),($H$18:H47))/((ROWS($I$18:I47)*SUM($H$18:H47))))</f>
-        <v>1.7072904200177379</v>
+        <v>1.6068004828371065</v>
       </c>
       <c r="J47" s="16">
         <f t="shared" ref="J47" si="38">(H47-H46)/H46</f>
@@ -11441,7 +11426,7 @@
       </c>
       <c r="N47" s="25">
         <f t="shared" si="12"/>
-        <v>4248592.2102141408</v>
+        <v>3998523.0015401393</v>
       </c>
       <c r="O47" s="25">
         <f t="shared" si="1"/>
@@ -11449,11 +11434,11 @@
       </c>
       <c r="P47" s="25">
         <f t="shared" si="4"/>
-        <v>1591192.2102141404</v>
+        <v>1341123.0015401389</v>
       </c>
       <c r="Q47" s="16">
         <f t="shared" si="2"/>
-        <v>329128.24548346346</v>
+        <v>312037.24892966659</v>
       </c>
       <c r="R47" s="2">
         <f t="shared" si="5"/>
@@ -11461,7 +11446,7 @@
       </c>
       <c r="S47" s="2">
         <f t="shared" si="6"/>
-        <v>125378.22740028077</v>
+        <v>108287.2308464839</v>
       </c>
     </row>
     <row r="48" spans="2:19" x14ac:dyDescent="0.35">
@@ -11481,18 +11466,18 @@
       </c>
       <c r="F48" s="17">
         <f t="shared" si="8"/>
-        <v>-3.5381696027986823E-4</v>
+        <v>-7.7634268497916992E-4</v>
       </c>
       <c r="G48" s="16">
         <f t="shared" si="9"/>
-        <v>51.831102033484406</v>
+        <v>49.241019341077688</v>
       </c>
       <c r="H48" s="16">
         <v>6130</v>
       </c>
       <c r="I48" s="16">
         <f>(SUMPRODUCT(($G$18:G48),($H$18:H48))/((ROWS($I$18:I48)*SUM($H$18:H48))))</f>
-        <v>1.6535759323548966</v>
+        <v>1.5572701776224869</v>
       </c>
       <c r="J48" s="16">
         <f t="shared" ref="J48" si="39">(H48-H47)/H47</f>
@@ -11512,7 +11497,7 @@
       </c>
       <c r="N48" s="25">
         <f t="shared" si="12"/>
-        <v>4566316.8656794</v>
+        <v>4300370.4501009453</v>
       </c>
       <c r="O48" s="25">
         <f t="shared" si="1"/>
@@ -11520,11 +11505,11 @@
       </c>
       <c r="P48" s="25">
         <f t="shared" si="4"/>
-        <v>1712756.8656794</v>
+        <v>1446810.4501009453</v>
       </c>
       <c r="Q48" s="16">
         <f t="shared" si="2"/>
-        <v>317724.65546525939</v>
+        <v>301847.44856080622</v>
       </c>
       <c r="R48" s="2">
         <f t="shared" si="5"/>
@@ -11532,7 +11517,7 @@
       </c>
       <c r="S48" s="2">
         <f t="shared" si="6"/>
-        <v>121358.21181909865</v>
+        <v>105481.00491464548</v>
       </c>
     </row>
     <row r="49" spans="2:19" x14ac:dyDescent="0.35">
@@ -11552,18 +11537,18 @@
       </c>
       <c r="F49" s="17">
         <f t="shared" si="8"/>
-        <v>-3.4796632818009064E-4</v>
+        <v>-7.6425293186983562E-4</v>
       </c>
       <c r="G49" s="16">
         <f t="shared" si="9"/>
-        <v>51.762576509802017</v>
+        <v>49.085853648076956</v>
       </c>
       <c r="H49" s="16">
         <v>6430</v>
       </c>
       <c r="I49" s="16">
         <f>(SUMPRODUCT(($G$18:G49),($H$18:H49))/((ROWS($I$18:I49)*SUM($H$18:H49))))</f>
-        <v>1.6029572272004982</v>
+        <v>1.5103105987128573</v>
       </c>
       <c r="J49" s="16">
         <f t="shared" ref="J49" si="40">(H49-H48)/H48</f>
@@ -11583,7 +11568,7 @@
       </c>
       <c r="N49" s="25">
         <f t="shared" si="12"/>
-        <v>4899150.2326374268</v>
+        <v>4615992.4890580801</v>
       </c>
       <c r="O49" s="25">
         <f t="shared" si="1"/>
@@ -11591,11 +11576,11 @@
       </c>
       <c r="P49" s="25">
         <f t="shared" si="4"/>
-        <v>1839830.2326374268</v>
+        <v>1556672.4890580801</v>
       </c>
       <c r="Q49" s="16">
         <f t="shared" si="2"/>
-        <v>332833.36695802695</v>
+        <v>315622.03895713482</v>
       </c>
       <c r="R49" s="2">
         <f t="shared" si="5"/>
@@ -11603,7 +11588,7 @@
       </c>
       <c r="S49" s="2">
         <f t="shared" si="6"/>
-        <v>126871.39857775264</v>
+        <v>109660.07057686051</v>
       </c>
     </row>
     <row r="50" spans="2:19" x14ac:dyDescent="0.35">
@@ -11623,18 +11608,18 @@
       </c>
       <c r="F50" s="17">
         <f t="shared" si="8"/>
-        <v>-2.2841841227463059E-4</v>
+        <v>-5.172189766691086E-4</v>
       </c>
       <c r="G50" s="16">
         <f t="shared" si="9"/>
-        <v>52.426197139427792</v>
+        <v>50.43636125074984</v>
       </c>
       <c r="H50" s="16">
         <v>6890</v>
       </c>
       <c r="I50" s="16">
         <f>(SUMPRODUCT(($G$18:G50),($H$18:H50))/((ROWS($I$18:I50)*SUM($H$18:H50))))</f>
-        <v>1.5566899653551385</v>
+        <v>1.4688384878301806</v>
       </c>
       <c r="J50" s="16">
         <f t="shared" ref="J50" si="41">(H50-H49)/H49</f>
@@ -11654,7 +11639,7 @@
       </c>
       <c r="N50" s="25">
         <f t="shared" si="12"/>
-        <v>5260366.7309280839</v>
+        <v>4963499.0180757465</v>
       </c>
       <c r="O50" s="25">
         <f t="shared" si="1"/>
@@ -11662,11 +11647,11 @@
       </c>
       <c r="P50" s="25">
         <f t="shared" si="4"/>
-        <v>1980566.7309280839</v>
+        <v>1683699.0180757465</v>
       </c>
       <c r="Q50" s="16">
         <f t="shared" si="2"/>
-        <v>361216.49829065747</v>
+        <v>347506.52901766641</v>
       </c>
       <c r="R50" s="2">
         <f t="shared" si="5"/>
@@ -11674,7 +11659,7 @@
       </c>
       <c r="S50" s="2">
         <f t="shared" si="6"/>
-        <v>140534.64282190747</v>
+        <v>126824.67354891641</v>
       </c>
     </row>
     <row r="51" spans="2:19" x14ac:dyDescent="0.35">
@@ -11694,18 +11679,18 @@
       </c>
       <c r="F51" s="17">
         <f t="shared" si="8"/>
-        <v>-2.2841841227463103E-4</v>
+        <v>-5.1721897666910882E-4</v>
       </c>
       <c r="G51" s="16">
         <f t="shared" si="9"/>
-        <v>52.341682326886179</v>
+        <v>50.244990229382267</v>
       </c>
       <c r="H51" s="16">
         <v>7260</v>
       </c>
       <c r="I51" s="16">
         <f>(SUMPRODUCT(($G$18:G51),($H$18:H51))/((ROWS($I$18:I51)*SUM($H$18:H51))))</f>
-        <v>1.5127955243000497</v>
+        <v>1.4290903560580461</v>
       </c>
       <c r="J51" s="16">
         <f t="shared" ref="J51" si="42">(H51-H50)/H50</f>
@@ -11725,7 +11710,7 @@
       </c>
       <c r="N51" s="25">
         <f t="shared" si="12"/>
-        <v>5640367.3446212774</v>
+        <v>5328277.6471410617</v>
       </c>
       <c r="O51" s="25">
         <f t="shared" si="1"/>
@@ -11733,11 +11718,11 @@
       </c>
       <c r="P51" s="25">
         <f t="shared" si="4"/>
-        <v>2128247.3446212774</v>
+        <v>1816157.6471410617</v>
       </c>
       <c r="Q51" s="16">
         <f t="shared" si="2"/>
-        <v>380000.61369319365</v>
+        <v>364778.62906531524</v>
       </c>
       <c r="R51" s="2">
         <f t="shared" si="5"/>
@@ -11745,7 +11730,7 @@
       </c>
       <c r="S51" s="2">
         <f t="shared" si="6"/>
-        <v>147481.9997956923</v>
+        <v>132260.01516781389</v>
       </c>
     </row>
     <row r="52" spans="2:19" x14ac:dyDescent="0.35">
@@ -11765,18 +11750,18 @@
       </c>
       <c r="F52" s="17">
         <f t="shared" si="8"/>
-        <v>-2.2841841227462994E-4</v>
+        <v>-5.1721897666911565E-4</v>
       </c>
       <c r="G52" s="16">
         <f t="shared" si="9"/>
-        <v>52.43761806004153</v>
+        <v>50.462222199583252</v>
       </c>
       <c r="H52" s="16">
         <v>6840</v>
       </c>
       <c r="I52" s="16">
         <f>(SUMPRODUCT(($G$18:G52),($H$18:H52))/((ROWS($I$18:I52)*SUM($H$18:H52))))</f>
-        <v>1.4712546050648587</v>
+        <v>1.3914014094386784</v>
       </c>
       <c r="J52" s="16">
         <f t="shared" ref="J52" si="43">(H52-H51)/H51</f>
@@ -11796,7 +11781,7 @@
       </c>
       <c r="N52" s="25">
         <f t="shared" si="12"/>
-        <v>5999040.6521519618</v>
+        <v>5673439.2469862113</v>
       </c>
       <c r="O52" s="25">
         <f t="shared" si="1"/>
@@ -11804,11 +11789,11 @@
       </c>
       <c r="P52" s="25">
         <f t="shared" si="4"/>
-        <v>2268040.6521519623</v>
+        <v>1942439.2469862117</v>
       </c>
       <c r="Q52" s="16">
         <f t="shared" si="2"/>
-        <v>358673.30753068405</v>
+        <v>345161.59984514944</v>
       </c>
       <c r="R52" s="2">
         <f t="shared" si="5"/>
@@ -11816,7 +11801,7 @@
       </c>
       <c r="S52" s="2">
         <f t="shared" si="6"/>
-        <v>139617.17019162828</v>
+        <v>126105.46250609367</v>
       </c>
     </row>
     <row r="53" spans="2:19" x14ac:dyDescent="0.35">
@@ -11836,18 +11821,18 @@
       </c>
       <c r="F53" s="17">
         <f t="shared" si="8"/>
-        <v>-2.2505779586522341E-4</v>
+        <v>-5.1002238453785723E-4</v>
       </c>
       <c r="G53" s="16">
         <f t="shared" si="9"/>
-        <v>52.156776651863822</v>
+        <v>49.822916670634953</v>
       </c>
       <c r="H53" s="16">
         <v>8190</v>
       </c>
       <c r="I53" s="16">
         <f>(SUMPRODUCT(($G$18:G53),($H$18:H53))/((ROWS($I$18:I53)*SUM($H$18:H53))))</f>
-        <v>1.4315958361025847</v>
+        <v>1.3548018941460849</v>
       </c>
       <c r="J53" s="16">
         <f t="shared" ref="J53" si="44">(H53-H52)/H52</f>
@@ -11867,7 +11852,7 @@
       </c>
       <c r="N53" s="25">
         <f t="shared" si="12"/>
-        <v>6426204.6529307263</v>
+        <v>6081488.9345187116</v>
       </c>
       <c r="O53" s="25">
         <f t="shared" si="1"/>
@@ -11875,11 +11860,11 @@
       </c>
       <c r="P53" s="25">
         <f t="shared" si="4"/>
-        <v>2433124.6529307258</v>
+        <v>2088408.9345187112</v>
       </c>
       <c r="Q53" s="16">
         <f t="shared" si="2"/>
-        <v>427164.00077876472</v>
+        <v>408049.68753250025</v>
       </c>
       <c r="R53" s="2">
         <f t="shared" si="5"/>
@@ -11887,7 +11872,7 @@
       </c>
       <c r="S53" s="2">
         <f t="shared" si="6"/>
-        <v>164886.95209803648</v>
+        <v>145772.638851772</v>
       </c>
     </row>
     <row r="54" spans="2:19" x14ac:dyDescent="0.35">
@@ -11907,18 +11892,18 @@
       </c>
       <c r="F54" s="17">
         <f t="shared" si="8"/>
-        <v>-2.0803067272422764E-4</v>
+        <v>-4.7355965107281385E-4</v>
       </c>
       <c r="G54" s="16">
         <f t="shared" si="9"/>
-        <v>52.314951550933756</v>
+        <v>50.164166826310208</v>
       </c>
       <c r="H54" s="16">
         <v>8100</v>
       </c>
       <c r="I54" s="16">
         <f>(SUMPRODUCT(($G$18:G54),($H$18:H54))/((ROWS($I$18:I54)*SUM($H$18:H54))))</f>
-        <v>1.3941858533985361</v>
+        <v>1.3204793355515261</v>
       </c>
       <c r="J54" s="16">
         <f t="shared" ref="J54" si="45">(H54-H53)/H53</f>
@@ -11938,7 +11923,7 @@
       </c>
       <c r="N54" s="25">
         <f t="shared" si="12"/>
-        <v>6849955.7604932897</v>
+        <v>6487818.6858118242</v>
       </c>
       <c r="O54" s="25">
         <f t="shared" si="1"/>
@@ -11946,11 +11931,11 @@
       </c>
       <c r="P54" s="25">
         <f t="shared" si="4"/>
-        <v>2199305.7604932897</v>
+        <v>1837168.6858118242</v>
       </c>
       <c r="Q54" s="16">
         <f t="shared" si="2"/>
-        <v>423751.10756256344</v>
+        <v>406329.7512931127</v>
       </c>
       <c r="R54" s="2">
         <f t="shared" si="5"/>
@@ -11958,7 +11943,7 @@
       </c>
       <c r="S54" s="2">
         <f t="shared" si="6"/>
-        <v>140068.11185505532</v>
+        <v>122646.75558560458</v>
       </c>
     </row>
   </sheetData>
@@ -12021,7 +12006,7 @@
         <v>76</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F5" s="14" t="s">
         <v>79</v>
@@ -12030,22 +12015,22 @@
         <v>80</v>
       </c>
       <c r="H5" s="14" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="I5" s="14" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="J5" s="14" t="s">
         <v>77</v>
       </c>
       <c r="K5" s="14" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="L5" s="14" t="s">
         <v>78</v>
       </c>
       <c r="M5" s="14" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.35">
